--- a/Code/Results/Cases/Case_5_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.983058578726966</v>
+        <v>1.022896818592955</v>
       </c>
       <c r="D2">
-        <v>1.004796654344751</v>
+        <v>1.038491900466585</v>
       </c>
       <c r="E2">
-        <v>0.9907028111265836</v>
+        <v>1.034535610651113</v>
       </c>
       <c r="F2">
-        <v>0.9916277898736333</v>
+        <v>1.043442017631607</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038950916471135</v>
+        <v>1.049773975821321</v>
       </c>
       <c r="J2">
-        <v>1.005758087896097</v>
+        <v>1.044413610928616</v>
       </c>
       <c r="K2">
-        <v>1.016189566203845</v>
+        <v>1.049439815026936</v>
       </c>
       <c r="L2">
-        <v>1.002293208378594</v>
+        <v>1.04553389651413</v>
       </c>
       <c r="M2">
-        <v>1.00320500844647</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.054327578293615</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9934001740131521</v>
+        <v>1.031437866986056</v>
       </c>
       <c r="D3">
-        <v>1.012938583499681</v>
+        <v>1.045206738441855</v>
       </c>
       <c r="E3">
-        <v>0.9997914780079232</v>
+        <v>1.041865056340946</v>
       </c>
       <c r="F3">
-        <v>1.00190132691135</v>
+        <v>1.05099150493494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042581692345009</v>
+        <v>1.052205315212396</v>
       </c>
       <c r="J3">
-        <v>1.014072388322701</v>
+        <v>1.051106708394792</v>
       </c>
       <c r="K3">
-        <v>1.023408546723596</v>
+        <v>1.055292106883698</v>
       </c>
       <c r="L3">
-        <v>1.0104270276073</v>
+        <v>1.051988886712435</v>
       </c>
       <c r="M3">
-        <v>1.012509937574081</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.061011004860697</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9998122674025905</v>
+        <v>1.036787946715084</v>
       </c>
       <c r="D4">
-        <v>1.017989541691386</v>
+        <v>1.049414661487303</v>
       </c>
       <c r="E4">
-        <v>1.005428457517914</v>
+        <v>1.046461796285732</v>
       </c>
       <c r="F4">
-        <v>1.008279754823679</v>
+        <v>1.0557264948086</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04481496783072</v>
+        <v>1.053714702141129</v>
       </c>
       <c r="J4">
-        <v>1.019220776618561</v>
+        <v>1.055295233584615</v>
       </c>
       <c r="K4">
-        <v>1.027875590882542</v>
+        <v>1.058951146335662</v>
       </c>
       <c r="L4">
-        <v>1.015461804400158</v>
+        <v>1.056030031910316</v>
       </c>
       <c r="M4">
-        <v>1.018279267146867</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.065195840072904</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002446232823188</v>
+        <v>1.038997457536985</v>
       </c>
       <c r="D5">
-        <v>1.02006483450718</v>
+        <v>1.051152772509692</v>
       </c>
       <c r="E5">
-        <v>1.007744314757576</v>
+        <v>1.0483614227381</v>
       </c>
       <c r="F5">
-        <v>1.010901843541771</v>
+        <v>1.057683309457403</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04572795996672</v>
+        <v>1.054334722640385</v>
       </c>
       <c r="J5">
-        <v>1.021333931085479</v>
+        <v>1.057023998062258</v>
       </c>
       <c r="K5">
-        <v>1.029708294464381</v>
+        <v>1.060460546462509</v>
       </c>
       <c r="L5">
-        <v>1.017527884197048</v>
+        <v>1.057698343036336</v>
       </c>
       <c r="M5">
-        <v>1.020649103759008</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.06692362653355</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002885011099086</v>
+        <v>1.039366189511999</v>
       </c>
       <c r="D6">
-        <v>1.02041056793963</v>
+        <v>1.051442849187946</v>
       </c>
       <c r="E6">
-        <v>1.008130115055291</v>
+        <v>1.048678509581391</v>
       </c>
       <c r="F6">
-        <v>1.011338755684397</v>
+        <v>1.05800994535861</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045879789163489</v>
+        <v>1.054437995842504</v>
       </c>
       <c r="J6">
-        <v>1.021685847398426</v>
+        <v>1.057312437814475</v>
       </c>
       <c r="K6">
-        <v>1.030013457534805</v>
+        <v>1.060712336443764</v>
       </c>
       <c r="L6">
-        <v>1.017871934885037</v>
+        <v>1.057976718032701</v>
       </c>
       <c r="M6">
-        <v>1.021043874178826</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.067211934567287</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9998476984696908</v>
+        <v>1.036817622891487</v>
       </c>
       <c r="D7">
-        <v>1.018017456152793</v>
+        <v>1.049438005237211</v>
       </c>
       <c r="E7">
-        <v>1.005459608505962</v>
+        <v>1.046487305620913</v>
       </c>
       <c r="F7">
-        <v>1.008315018500758</v>
+        <v>1.055752771885974</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04482726660223</v>
+        <v>1.053723043007155</v>
       </c>
       <c r="J7">
-        <v>1.019249208821726</v>
+        <v>1.055318457023505</v>
       </c>
       <c r="K7">
-        <v>1.027900252869758</v>
+        <v>1.058971426241668</v>
       </c>
       <c r="L7">
-        <v>1.015489604974906</v>
+        <v>1.056052441775021</v>
       </c>
       <c r="M7">
-        <v>1.018311145745312</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.065219048242377</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.986614852536595</v>
+        <v>1.025821508848943</v>
       </c>
       <c r="D8">
-        <v>1.007595796301603</v>
+        <v>1.040790787128369</v>
       </c>
       <c r="E8">
-        <v>0.993827775366743</v>
+        <v>1.037044159538347</v>
       </c>
       <c r="F8">
-        <v>0.9951587806099397</v>
+        <v>1.046025822134163</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040203219995934</v>
+        <v>1.050609360111594</v>
       </c>
       <c r="J8">
-        <v>1.008618584889502</v>
+        <v>1.046706307851893</v>
       </c>
       <c r="K8">
-        <v>1.018673851412251</v>
+        <v>1.051445177848749</v>
       </c>
       <c r="L8">
-        <v>1.005092007599378</v>
+        <v>1.047744677146015</v>
       </c>
       <c r="M8">
-        <v>1.006404731103622</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.056616448735681</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9608761752362419</v>
+        <v>1.004961182110094</v>
       </c>
       <c r="D9">
-        <v>0.9873588844065811</v>
+        <v>1.024407832999932</v>
       </c>
       <c r="E9">
-        <v>0.9712247556634207</v>
+        <v>1.019181506163676</v>
       </c>
       <c r="F9">
-        <v>0.9696458335748717</v>
+        <v>1.027628558127371</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031064750793948</v>
+        <v>1.044595274101334</v>
       </c>
       <c r="J9">
-        <v>0.9878903878816765</v>
+        <v>1.030339956465313</v>
       </c>
       <c r="K9">
-        <v>1.000660439426421</v>
+        <v>1.037116944216576</v>
       </c>
       <c r="L9">
-        <v>0.984802606703139</v>
+        <v>1.031970857904862</v>
       </c>
       <c r="M9">
-        <v>0.9832513636889481</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.040288738953976</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.941610440207988</v>
+        <v>0.9898452338278683</v>
       </c>
       <c r="D10">
-        <v>0.9722538141566051</v>
+        <v>1.012562032934034</v>
       </c>
       <c r="E10">
-        <v>0.9543334838753812</v>
+        <v>1.006282532773148</v>
       </c>
       <c r="F10">
-        <v>0.9506116155911742</v>
+        <v>1.014345396423453</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024133428642791</v>
+        <v>1.040169905469273</v>
       </c>
       <c r="J10">
-        <v>0.9723487977866268</v>
+        <v>1.018467621890531</v>
       </c>
       <c r="K10">
-        <v>0.9871427809367296</v>
+        <v>1.026708120677213</v>
       </c>
       <c r="L10">
-        <v>0.9695792978497052</v>
+        <v>1.020539273141947</v>
       </c>
       <c r="M10">
-        <v>0.9659337705438451</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.028460382454765</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9326260213315891</v>
+        <v>0.9829559490914549</v>
       </c>
       <c r="D11">
-        <v>0.9652253537136765</v>
+        <v>1.00717222204008</v>
       </c>
       <c r="E11">
-        <v>0.9464666055795369</v>
+        <v>1.00041684226681</v>
       </c>
       <c r="F11">
-        <v>0.9417528744490851</v>
+        <v>1.008305533586838</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020881822709537</v>
+        <v>1.038138502202155</v>
       </c>
       <c r="J11">
-        <v>0.9650974785807396</v>
+        <v>1.013055381691773</v>
       </c>
       <c r="K11">
-        <v>0.9808342797023589</v>
+        <v>1.021960136517416</v>
       </c>
       <c r="L11">
-        <v>0.9624739892156478</v>
+        <v>1.015330901832356</v>
       </c>
       <c r="M11">
-        <v>0.9578637039417034</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.023072501214446</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9291765015337472</v>
+        <v>0.9803394851373594</v>
       </c>
       <c r="D12">
-        <v>0.9625297585077305</v>
+        <v>1.005126892554821</v>
       </c>
       <c r="E12">
-        <v>0.9434481006366335</v>
+        <v>0.9981913582465239</v>
       </c>
       <c r="F12">
-        <v>0.9383545703972119</v>
+        <v>1.006014056570498</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019630758577445</v>
+        <v>1.037364975402232</v>
       </c>
       <c r="J12">
-        <v>0.9623131160275448</v>
+        <v>1.010999866481945</v>
       </c>
       <c r="K12">
-        <v>0.9784118473221934</v>
+        <v>1.020156524164854</v>
       </c>
       <c r="L12">
-        <v>0.9597453291369362</v>
+        <v>1.013353291203395</v>
       </c>
       <c r="M12">
-        <v>0.9547664236995861</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.021026936692513</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9299218143279846</v>
+        <v>0.9809034296490162</v>
       </c>
       <c r="D13">
-        <v>0.9631120328854048</v>
+        <v>1.00556765685246</v>
       </c>
       <c r="E13">
-        <v>0.9441001923032257</v>
+        <v>0.9986709270878281</v>
       </c>
       <c r="F13">
-        <v>0.9390886784640042</v>
+        <v>1.006507842039148</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019901180443205</v>
+        <v>1.037531787690994</v>
       </c>
       <c r="J13">
-        <v>0.9629147193776302</v>
+        <v>1.011442903380463</v>
       </c>
       <c r="K13">
-        <v>0.9789352520312961</v>
+        <v>1.020545282826673</v>
       </c>
       <c r="L13">
-        <v>0.9603349132014263</v>
+        <v>1.013779514746377</v>
       </c>
       <c r="M13">
-        <v>0.9554355720355446</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.02146779640684</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9323432794462074</v>
+        <v>0.9827408806806074</v>
       </c>
       <c r="D14">
-        <v>0.9650043444530652</v>
+        <v>1.007004064510222</v>
       </c>
       <c r="E14">
-        <v>0.9462191502677636</v>
+        <v>1.000233864901344</v>
       </c>
       <c r="F14">
-        <v>0.9414742687591705</v>
+        <v>1.008117128470897</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020779329828256</v>
+        <v>1.038074959840912</v>
       </c>
       <c r="J14">
-        <v>0.9648692600061179</v>
+        <v>1.01288642139506</v>
       </c>
       <c r="K14">
-        <v>0.9806357275484138</v>
+        <v>1.021811889467234</v>
       </c>
       <c r="L14">
-        <v>0.9622503434882147</v>
+        <v>1.015168335293124</v>
       </c>
       <c r="M14">
-        <v>0.957609807833505</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.022904344360462</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9338198030322737</v>
+        <v>0.983865189670446</v>
       </c>
       <c r="D15">
-        <v>0.9661586131105876</v>
+        <v>1.007883207310028</v>
       </c>
       <c r="E15">
-        <v>0.9475114827292557</v>
+        <v>1.001190504300887</v>
       </c>
       <c r="F15">
-        <v>0.9429293140840268</v>
+        <v>1.009102148828932</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021314459698561</v>
+        <v>1.038407057772224</v>
       </c>
       <c r="J15">
-        <v>0.9660610455754849</v>
+        <v>1.013769692420934</v>
       </c>
       <c r="K15">
-        <v>0.9816725884868065</v>
+        <v>1.022586863362185</v>
       </c>
       <c r="L15">
-        <v>0.9634182345206365</v>
+        <v>1.016018201361677</v>
       </c>
       <c r="M15">
-        <v>0.9589357436975644</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.023783443951289</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9421919098946718</v>
+        <v>0.9902947310979482</v>
       </c>
       <c r="D16">
-        <v>0.9727090609739278</v>
+        <v>1.012913906253618</v>
       </c>
       <c r="E16">
-        <v>0.9548428670545943</v>
+        <v>1.006665536966781</v>
       </c>
       <c r="F16">
-        <v>0.951185336806157</v>
+        <v>1.01473978506622</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024343499564359</v>
+        <v>1.040302159466655</v>
       </c>
       <c r="J16">
-        <v>0.9728180500319995</v>
+        <v>1.018820736127814</v>
       </c>
       <c r="K16">
-        <v>0.9875510006997088</v>
+        <v>1.027017841389463</v>
       </c>
       <c r="L16">
-        <v>0.9700390513022449</v>
+        <v>1.020879149780182</v>
       </c>
       <c r="M16">
-        <v>0.9664562064775017</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.028812000529285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9472615300741206</v>
+        <v>0.9942319000228128</v>
       </c>
       <c r="D17">
-        <v>0.9766799857931779</v>
+        <v>1.015997031461439</v>
       </c>
       <c r="E17">
-        <v>0.9592851646818362</v>
+        <v>1.010021797507111</v>
       </c>
       <c r="F17">
-        <v>0.9561893950399283</v>
+        <v>1.018195868394636</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026172921236187</v>
+        <v>1.041458966807892</v>
       </c>
       <c r="J17">
-        <v>0.9769089126208593</v>
+        <v>1.021913556736302</v>
       </c>
       <c r="K17">
-        <v>0.991109639085759</v>
+        <v>1.029730270397352</v>
       </c>
       <c r="L17">
-        <v>0.9740468292471277</v>
+        <v>1.023856360806864</v>
       </c>
       <c r="M17">
-        <v>0.9710118108280756</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.031892206588997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9501578301071344</v>
+        <v>0.9964956308494177</v>
       </c>
       <c r="D18">
-        <v>0.9789499975785932</v>
+        <v>1.01777054489171</v>
       </c>
       <c r="E18">
-        <v>0.9618239859308796</v>
+        <v>1.011952741908295</v>
       </c>
       <c r="F18">
-        <v>0.9590498506412073</v>
+        <v>1.020184292816047</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027216286089355</v>
+        <v>1.042122723867204</v>
       </c>
       <c r="J18">
-        <v>0.9792456882354854</v>
+        <v>1.02369168589372</v>
       </c>
       <c r="K18">
-        <v>0.9931422509665856</v>
+        <v>1.031289427193338</v>
       </c>
       <c r="L18">
-        <v>0.9763359146850332</v>
+        <v>1.025568296439762</v>
       </c>
       <c r="M18">
-        <v>0.9736149688450262</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.033663482890711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9511355150596547</v>
+        <v>0.9972621108144636</v>
       </c>
       <c r="D19">
-        <v>0.9797164930863282</v>
+        <v>1.01837117376432</v>
       </c>
       <c r="E19">
-        <v>0.9626811437919189</v>
+        <v>1.012606742479595</v>
       </c>
       <c r="F19">
-        <v>0.960015701426582</v>
+        <v>1.02085776969124</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027568176891474</v>
+        <v>1.04234723055485</v>
       </c>
       <c r="J19">
-        <v>0.9800344305904144</v>
+        <v>1.024293718111052</v>
       </c>
       <c r="K19">
-        <v>0.9938282991068247</v>
+        <v>1.03181727186136</v>
       </c>
       <c r="L19">
-        <v>0.9771085205813448</v>
+        <v>1.026147962452771</v>
       </c>
       <c r="M19">
-        <v>0.9744937799452109</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.034263261255979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.946723991142115</v>
+        <v>0.9938129059173214</v>
       </c>
       <c r="D20">
-        <v>0.9762587931564271</v>
+        <v>1.015668836863501</v>
       </c>
       <c r="E20">
-        <v>0.9588140438317502</v>
+        <v>1.009664495723377</v>
       </c>
       <c r="F20">
-        <v>0.9556586378274022</v>
+        <v>1.017827934454571</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0259791303725</v>
+        <v>1.041336000230539</v>
       </c>
       <c r="J20">
-        <v>0.9764751879533149</v>
+        <v>1.021584430831962</v>
       </c>
       <c r="K20">
-        <v>0.9907323568546278</v>
+        <v>1.029441652680466</v>
       </c>
       <c r="L20">
-        <v>0.9736219374381462</v>
+        <v>1.023539509007893</v>
       </c>
       <c r="M20">
-        <v>0.9705287178416985</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.031564381179942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9316334651959371</v>
+        <v>0.9822014349643178</v>
       </c>
       <c r="D21">
-        <v>0.9644495573318942</v>
+        <v>1.006582310711448</v>
       </c>
       <c r="E21">
-        <v>0.945597954434345</v>
+        <v>0.9997749483745414</v>
       </c>
       <c r="F21">
-        <v>0.940774886884305</v>
+        <v>1.007644600336514</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020521983708376</v>
+        <v>1.03791554761335</v>
       </c>
       <c r="J21">
-        <v>0.9642963217150748</v>
+        <v>1.012462626853556</v>
       </c>
       <c r="K21">
-        <v>0.9801372652289603</v>
+        <v>1.021440043114737</v>
       </c>
       <c r="L21">
-        <v>0.9616888794828763</v>
+        <v>1.014760585682853</v>
       </c>
       <c r="M21">
-        <v>0.9569724299829692</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.022482576478483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9214846972181574</v>
+        <v>0.9745647143132286</v>
       </c>
       <c r="D22">
-        <v>0.9565253173636979</v>
+        <v>1.000616081578722</v>
       </c>
       <c r="E22">
-        <v>0.9367215268220256</v>
+        <v>0.9932839504019091</v>
       </c>
       <c r="F22">
-        <v>0.9307828695724452</v>
+        <v>1.000961303695766</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016836578336498</v>
+        <v>1.035654175337149</v>
       </c>
       <c r="J22">
-        <v>0.9561043977964589</v>
+        <v>1.006463353129266</v>
       </c>
       <c r="K22">
-        <v>0.9730101785630659</v>
+        <v>1.016175343644501</v>
       </c>
       <c r="L22">
-        <v>0.9536601651193022</v>
+        <v>1.008989638026257</v>
       </c>
       <c r="M22">
-        <v>0.9478626389387045</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.016513740996065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.926933765235744</v>
+        <v>0.9786471332046952</v>
       </c>
       <c r="D23">
-        <v>0.9607781092702363</v>
+        <v>1.003804461586729</v>
       </c>
       <c r="E23">
-        <v>0.9414861993049783</v>
+        <v>0.9967525594443258</v>
       </c>
       <c r="F23">
-        <v>0.9361460120420133</v>
+        <v>1.00453261899453</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018816664730642</v>
+        <v>1.03686410102706</v>
       </c>
       <c r="J23">
-        <v>0.9605028071500168</v>
+        <v>1.009670361520842</v>
       </c>
       <c r="K23">
-        <v>0.9768368471369158</v>
+        <v>1.018989852547737</v>
       </c>
       <c r="L23">
-        <v>0.9579711360904704</v>
+        <v>1.012074314205371</v>
       </c>
       <c r="M23">
-        <v>0.9527530754710017</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01970407216378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9469670683453202</v>
+        <v>0.9940023321076343</v>
       </c>
       <c r="D24">
-        <v>0.9764492537822832</v>
+        <v>1.015817210272532</v>
       </c>
       <c r="E24">
-        <v>0.959027083699122</v>
+        <v>1.009826027209468</v>
       </c>
       <c r="F24">
-        <v>0.9558986433088151</v>
+        <v>1.01799427244739</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026066768965613</v>
+        <v>1.041391597370207</v>
       </c>
       <c r="J24">
-        <v>0.9766713210683685</v>
+        <v>1.021733228254827</v>
       </c>
       <c r="K24">
-        <v>0.9909029668021666</v>
+        <v>1.029572137266712</v>
       </c>
       <c r="L24">
-        <v>0.9738140769970755</v>
+        <v>1.023682756476578</v>
       </c>
       <c r="M24">
-        <v>0.9707471727826723</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.031712589412055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.967860914686276</v>
+        <v>1.010549980793134</v>
       </c>
       <c r="D25">
-        <v>0.9928450278563498</v>
+        <v>1.028793576793328</v>
       </c>
       <c r="E25">
-        <v>0.9773550013491309</v>
+        <v>1.023960337280425</v>
       </c>
       <c r="F25">
-        <v>0.9765596652366153</v>
+        <v>1.032550124845701</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033560487657424</v>
+        <v>1.046218395718873</v>
       </c>
       <c r="J25">
-        <v>0.9935205013676538</v>
+        <v>1.034727438616054</v>
       </c>
       <c r="K25">
-        <v>1.005555440372819</v>
+        <v>1.040960767902672</v>
       </c>
       <c r="L25">
-        <v>0.9903153271908562</v>
+        <v>1.036197747248727</v>
       </c>
       <c r="M25">
-        <v>0.9895330982035382</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.044663314377734</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022896818592955</v>
+        <v>1.069295225394701</v>
       </c>
       <c r="D2">
-        <v>1.038491900466585</v>
+        <v>1.083134481599874</v>
       </c>
       <c r="E2">
-        <v>1.034535610651113</v>
+        <v>1.075254068298478</v>
       </c>
       <c r="F2">
-        <v>1.043442017631607</v>
+        <v>1.088679560500015</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049773975821321</v>
+        <v>1.087167535982355</v>
       </c>
       <c r="J2">
-        <v>1.044413610928616</v>
+        <v>1.089583948547387</v>
       </c>
       <c r="K2">
-        <v>1.049439815026936</v>
+        <v>1.093545509072226</v>
       </c>
       <c r="L2">
-        <v>1.04553389651413</v>
+        <v>1.085755861210863</v>
       </c>
       <c r="M2">
-        <v>1.054327578293615</v>
+        <v>1.099027691134929</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031437866986056</v>
+        <v>1.07617739213694</v>
       </c>
       <c r="D3">
-        <v>1.045206738441855</v>
+        <v>1.088815567251889</v>
       </c>
       <c r="E3">
-        <v>1.041865056340946</v>
+        <v>1.081317182206039</v>
       </c>
       <c r="F3">
-        <v>1.05099150493494</v>
+        <v>1.094839304379415</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052205315212396</v>
+        <v>1.090364247401681</v>
       </c>
       <c r="J3">
-        <v>1.051106708394792</v>
+        <v>1.094786800384323</v>
       </c>
       <c r="K3">
-        <v>1.055292106883698</v>
+        <v>1.098425461583392</v>
       </c>
       <c r="L3">
-        <v>1.051988886712435</v>
+        <v>1.091005492468218</v>
       </c>
       <c r="M3">
-        <v>1.061011004860697</v>
+        <v>1.104387152748009</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036787946715084</v>
+        <v>1.080508151979393</v>
       </c>
       <c r="D4">
-        <v>1.049414661487303</v>
+        <v>1.092392364472716</v>
       </c>
       <c r="E4">
-        <v>1.046461796285732</v>
+        <v>1.085132888550594</v>
       </c>
       <c r="F4">
-        <v>1.0557264948086</v>
+        <v>1.098718714458065</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053714702141129</v>
+        <v>1.092364506975659</v>
       </c>
       <c r="J4">
-        <v>1.055295233584615</v>
+        <v>1.098054853169285</v>
       </c>
       <c r="K4">
-        <v>1.058951146335662</v>
+        <v>1.101490310451919</v>
       </c>
       <c r="L4">
-        <v>1.056030031910316</v>
+        <v>1.09430194778609</v>
       </c>
       <c r="M4">
-        <v>1.065195840072904</v>
+        <v>1.107755615562564</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038997457536985</v>
+        <v>1.08230096723038</v>
       </c>
       <c r="D5">
-        <v>1.051152772509692</v>
+        <v>1.09387344197101</v>
       </c>
       <c r="E5">
-        <v>1.0483614227381</v>
+        <v>1.086712520412488</v>
       </c>
       <c r="F5">
-        <v>1.057683309457403</v>
+        <v>1.100325406790178</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054334722640385</v>
+        <v>1.093189801335228</v>
       </c>
       <c r="J5">
-        <v>1.057023998062258</v>
+        <v>1.099406269331978</v>
       </c>
       <c r="K5">
-        <v>1.060460546462509</v>
+        <v>1.102757596282347</v>
       </c>
       <c r="L5">
-        <v>1.057698343036336</v>
+        <v>1.095664869212835</v>
       </c>
       <c r="M5">
-        <v>1.06692362653355</v>
+        <v>1.109149035406448</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039366189511999</v>
+        <v>1.082600397504727</v>
       </c>
       <c r="D6">
-        <v>1.051442849187946</v>
+        <v>1.09412082756811</v>
       </c>
       <c r="E6">
-        <v>1.048678509581391</v>
+        <v>1.086976346104857</v>
       </c>
       <c r="F6">
-        <v>1.05800994535861</v>
+        <v>1.100593792372077</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054437995842504</v>
+        <v>1.093327476146647</v>
       </c>
       <c r="J6">
-        <v>1.057312437814475</v>
+        <v>1.099631891174679</v>
       </c>
       <c r="K6">
-        <v>1.060712336443764</v>
+        <v>1.102969166200928</v>
       </c>
       <c r="L6">
-        <v>1.057976718032701</v>
+        <v>1.095892397652908</v>
       </c>
       <c r="M6">
-        <v>1.067211934567287</v>
+        <v>1.109381697986258</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036817622891487</v>
+        <v>1.080532215163806</v>
       </c>
       <c r="D7">
-        <v>1.049438005237211</v>
+        <v>1.092412242076138</v>
       </c>
       <c r="E7">
-        <v>1.046487305620913</v>
+        <v>1.085154090312902</v>
       </c>
       <c r="F7">
-        <v>1.055752771885974</v>
+        <v>1.098740276708891</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053723043007155</v>
+        <v>1.092375595042913</v>
       </c>
       <c r="J7">
-        <v>1.055318457023505</v>
+        <v>1.098072997745324</v>
       </c>
       <c r="K7">
-        <v>1.058971426241668</v>
+        <v>1.10150732587588</v>
       </c>
       <c r="L7">
-        <v>1.056052441775021</v>
+        <v>1.094320247790764</v>
       </c>
       <c r="M7">
-        <v>1.065219048242377</v>
+        <v>1.107774322196855</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025821508848943</v>
+        <v>1.071647370453168</v>
       </c>
       <c r="D8">
-        <v>1.040790787128369</v>
+        <v>1.085075701193612</v>
       </c>
       <c r="E8">
-        <v>1.037044159538347</v>
+        <v>1.077326175806169</v>
       </c>
       <c r="F8">
-        <v>1.046025822134163</v>
+        <v>1.090784079102664</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050609360111594</v>
+        <v>1.088262456409575</v>
       </c>
       <c r="J8">
-        <v>1.046706307851893</v>
+        <v>1.091363379827544</v>
       </c>
       <c r="K8">
-        <v>1.051445177848749</v>
+        <v>1.095214580197241</v>
       </c>
       <c r="L8">
-        <v>1.047744677146015</v>
+        <v>1.087551495651999</v>
       </c>
       <c r="M8">
-        <v>1.056616448735681</v>
+        <v>1.10086024953301</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004961182110094</v>
+        <v>1.054980291879033</v>
       </c>
       <c r="D9">
-        <v>1.024407832999932</v>
+        <v>1.071331090931708</v>
       </c>
       <c r="E9">
-        <v>1.019181506163676</v>
+        <v>1.062647235225486</v>
       </c>
       <c r="F9">
-        <v>1.027628558127371</v>
+        <v>1.075888236776522</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044595274101334</v>
+        <v>1.080456692266417</v>
       </c>
       <c r="J9">
-        <v>1.030339956465313</v>
+        <v>1.078730512345373</v>
       </c>
       <c r="K9">
-        <v>1.037116944216576</v>
+        <v>1.08336395549402</v>
       </c>
       <c r="L9">
-        <v>1.031970857904862</v>
+        <v>1.074799566387395</v>
       </c>
       <c r="M9">
-        <v>1.040288738953976</v>
+        <v>1.087859377340504</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9898452338278683</v>
+        <v>1.043075996471501</v>
       </c>
       <c r="D10">
-        <v>1.012562032934034</v>
+        <v>1.06153120918722</v>
       </c>
       <c r="E10">
-        <v>1.006282532773148</v>
+        <v>1.052170692621895</v>
       </c>
       <c r="F10">
-        <v>1.014345396423453</v>
+        <v>1.065273454632928</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040169905469273</v>
+        <v>1.074822914357404</v>
       </c>
       <c r="J10">
-        <v>1.018467621890531</v>
+        <v>1.069678967390854</v>
       </c>
       <c r="K10">
-        <v>1.026708120677213</v>
+        <v>1.074871783468673</v>
       </c>
       <c r="L10">
-        <v>1.020539273141947</v>
+        <v>1.065657818037107</v>
       </c>
       <c r="M10">
-        <v>1.028460382454765</v>
+        <v>1.078556358775563</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9829559490914549</v>
+        <v>1.037704088902202</v>
       </c>
       <c r="D11">
-        <v>1.00717222204008</v>
+        <v>1.05711420122956</v>
       </c>
       <c r="E11">
-        <v>1.00041684226681</v>
+        <v>1.047445937856868</v>
       </c>
       <c r="F11">
-        <v>1.008305533586838</v>
+        <v>1.060490405820026</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038138502202155</v>
+        <v>1.072267366515458</v>
       </c>
       <c r="J11">
-        <v>1.013055381691773</v>
+        <v>1.065588306210904</v>
       </c>
       <c r="K11">
-        <v>1.021960136517416</v>
+        <v>1.071033826298216</v>
       </c>
       <c r="L11">
-        <v>1.015330901832356</v>
+        <v>1.061525325929777</v>
       </c>
       <c r="M11">
-        <v>1.023072501214446</v>
+        <v>1.074355122021361</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9803394851373594</v>
+        <v>1.03567325117962</v>
       </c>
       <c r="D12">
-        <v>1.005126892554821</v>
+        <v>1.055445267132858</v>
       </c>
       <c r="E12">
-        <v>0.9981913582465239</v>
+        <v>1.045660283997145</v>
       </c>
       <c r="F12">
-        <v>1.006014056570498</v>
+        <v>1.058683339623681</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037364975402232</v>
+        <v>1.071299316850773</v>
       </c>
       <c r="J12">
-        <v>1.010999866481945</v>
+        <v>1.064040996251525</v>
       </c>
       <c r="K12">
-        <v>1.020156524164854</v>
+        <v>1.069582104614577</v>
       </c>
       <c r="L12">
-        <v>1.013353291203395</v>
+        <v>1.059962042864653</v>
       </c>
       <c r="M12">
-        <v>1.021026936692513</v>
+        <v>1.07276646488077</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9809034296490162</v>
+        <v>1.036110527038784</v>
       </c>
       <c r="D13">
-        <v>1.00556765685246</v>
+        <v>1.055804575783941</v>
       </c>
       <c r="E13">
-        <v>0.9986709270878281</v>
+        <v>1.046044741790562</v>
       </c>
       <c r="F13">
-        <v>1.006507842039148</v>
+        <v>1.059072379447136</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037531787690994</v>
+        <v>1.071507841425628</v>
       </c>
       <c r="J13">
-        <v>1.011442903380463</v>
+        <v>1.06437419683824</v>
       </c>
       <c r="K13">
-        <v>1.020545282826673</v>
+        <v>1.069894720689154</v>
       </c>
       <c r="L13">
-        <v>1.013779514746377</v>
+        <v>1.060298689747382</v>
       </c>
       <c r="M13">
-        <v>1.02146779640684</v>
+        <v>1.073108547357888</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9827408806806074</v>
+        <v>1.037536960390626</v>
       </c>
       <c r="D14">
-        <v>1.007004064510222</v>
+        <v>1.056976836628466</v>
       </c>
       <c r="E14">
-        <v>1.000233864901344</v>
+        <v>1.047298975501908</v>
       </c>
       <c r="F14">
-        <v>1.008117128470897</v>
+        <v>1.060341668570028</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038074959840912</v>
+        <v>1.072187739308721</v>
       </c>
       <c r="J14">
-        <v>1.01288642139506</v>
+        <v>1.065460986500579</v>
       </c>
       <c r="K14">
-        <v>1.021811889467234</v>
+        <v>1.070914371891449</v>
       </c>
       <c r="L14">
-        <v>1.015168335293124</v>
+        <v>1.061396694869205</v>
       </c>
       <c r="M14">
-        <v>1.022904344360462</v>
+        <v>1.074224390268039</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.983865189670446</v>
+        <v>1.038411042374918</v>
       </c>
       <c r="D15">
-        <v>1.007883207310028</v>
+        <v>1.05769529093128</v>
       </c>
       <c r="E15">
-        <v>1.001190504300887</v>
+        <v>1.048067610630425</v>
       </c>
       <c r="F15">
-        <v>1.009102148828932</v>
+        <v>1.061119611905629</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038407057772224</v>
+        <v>1.072604111424969</v>
       </c>
       <c r="J15">
-        <v>1.013769692420934</v>
+        <v>1.066126834570859</v>
       </c>
       <c r="K15">
-        <v>1.022586863362185</v>
+        <v>1.071539086701117</v>
       </c>
       <c r="L15">
-        <v>1.016018201361677</v>
+        <v>1.062069394898601</v>
       </c>
       <c r="M15">
-        <v>1.023783443951289</v>
+        <v>1.074908101968732</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9902947310979482</v>
+        <v>1.043427700538497</v>
       </c>
       <c r="D16">
-        <v>1.012913906253618</v>
+        <v>1.061820513547358</v>
       </c>
       <c r="E16">
-        <v>1.006665536966781</v>
+        <v>1.05248009441382</v>
       </c>
       <c r="F16">
-        <v>1.01473978506622</v>
+        <v>1.065586758634937</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040302159466655</v>
+        <v>1.074989958888619</v>
       </c>
       <c r="J16">
-        <v>1.018820736127814</v>
+        <v>1.06994666665564</v>
       </c>
       <c r="K16">
-        <v>1.027017841389463</v>
+        <v>1.075122944763877</v>
       </c>
       <c r="L16">
-        <v>1.020879149780182</v>
+        <v>1.065928233504656</v>
       </c>
       <c r="M16">
-        <v>1.028812000529285</v>
+        <v>1.078831359284224</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9942319000228128</v>
+        <v>1.046514451394961</v>
       </c>
       <c r="D17">
-        <v>1.015997031461439</v>
+        <v>1.064360217650743</v>
       </c>
       <c r="E17">
-        <v>1.010021797507111</v>
+        <v>1.055195911831619</v>
       </c>
       <c r="F17">
-        <v>1.018195868394636</v>
+        <v>1.068337287292264</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041458966807892</v>
+        <v>1.076454542960983</v>
       </c>
       <c r="J17">
-        <v>1.021913556736302</v>
+        <v>1.072295465036838</v>
       </c>
       <c r="K17">
-        <v>1.029730270397352</v>
+        <v>1.07732662994624</v>
       </c>
       <c r="L17">
-        <v>1.023856360806864</v>
+        <v>1.068300744609797</v>
       </c>
       <c r="M17">
-        <v>1.031892206588997</v>
+        <v>1.081244567755618</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9964956308494177</v>
+        <v>1.048294145329558</v>
       </c>
       <c r="D18">
-        <v>1.01777054489171</v>
+        <v>1.06582499452959</v>
       </c>
       <c r="E18">
-        <v>1.011952741908295</v>
+        <v>1.05676200381276</v>
       </c>
       <c r="F18">
-        <v>1.020184292816047</v>
+        <v>1.069923776295579</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042122723867204</v>
+        <v>1.077297709644367</v>
       </c>
       <c r="J18">
-        <v>1.02369168589372</v>
+        <v>1.073649108798875</v>
       </c>
       <c r="K18">
-        <v>1.031289427193338</v>
+        <v>1.078596633179578</v>
       </c>
       <c r="L18">
-        <v>1.025568296439762</v>
+        <v>1.069667953452541</v>
       </c>
       <c r="M18">
-        <v>1.033663482890711</v>
+        <v>1.082635619689279</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9972621108144636</v>
+        <v>1.04889753513336</v>
       </c>
       <c r="D19">
-        <v>1.01837117376432</v>
+        <v>1.066321693936632</v>
       </c>
       <c r="E19">
-        <v>1.012606742479595</v>
+        <v>1.057293015600089</v>
       </c>
       <c r="F19">
-        <v>1.02085776969124</v>
+        <v>1.070461768316592</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04234723055485</v>
+        <v>1.077583363819723</v>
       </c>
       <c r="J19">
-        <v>1.024293718111052</v>
+        <v>1.074107950174716</v>
       </c>
       <c r="K19">
-        <v>1.03181727186136</v>
+        <v>1.079027121004886</v>
       </c>
       <c r="L19">
-        <v>1.026147962452771</v>
+        <v>1.0701313755745</v>
       </c>
       <c r="M19">
-        <v>1.034263261255979</v>
+        <v>1.083107189570142</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9938129059173214</v>
+        <v>1.046185438497572</v>
       </c>
       <c r="D20">
-        <v>1.015668836863501</v>
+        <v>1.064089462335911</v>
       </c>
       <c r="E20">
-        <v>1.009664495723377</v>
+        <v>1.05490640826997</v>
       </c>
       <c r="F20">
-        <v>1.017827934454571</v>
+        <v>1.068044043933512</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041336000230539</v>
+        <v>1.07629856448809</v>
       </c>
       <c r="J20">
-        <v>1.021584430831962</v>
+        <v>1.072045169055136</v>
       </c>
       <c r="K20">
-        <v>1.029441652680466</v>
+        <v>1.077091798639438</v>
       </c>
       <c r="L20">
-        <v>1.023539509007893</v>
+        <v>1.068047932137631</v>
       </c>
       <c r="M20">
-        <v>1.031564381179942</v>
+        <v>1.080987377996882</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9822014349643178</v>
+        <v>1.037117914922437</v>
       </c>
       <c r="D21">
-        <v>1.006582310711448</v>
+        <v>1.056632433933763</v>
       </c>
       <c r="E21">
-        <v>0.9997749483745414</v>
+        <v>1.046930502003144</v>
       </c>
       <c r="F21">
-        <v>1.007644600336514</v>
+        <v>1.05996875493545</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03791554761335</v>
+        <v>1.07198805720594</v>
       </c>
       <c r="J21">
-        <v>1.012462626853556</v>
+        <v>1.065141741290469</v>
       </c>
       <c r="K21">
-        <v>1.021440043114737</v>
+        <v>1.070614848463539</v>
       </c>
       <c r="L21">
-        <v>1.014760585682853</v>
+        <v>1.061074159157529</v>
       </c>
       <c r="M21">
-        <v>1.022482576478483</v>
+        <v>1.073896597356351</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9745647143132286</v>
+        <v>1.031209917115118</v>
       </c>
       <c r="D22">
-        <v>1.000616081578722</v>
+        <v>1.051779124983261</v>
       </c>
       <c r="E22">
-        <v>0.9932839504019091</v>
+        <v>1.041736903910081</v>
       </c>
       <c r="F22">
-        <v>1.000961303695766</v>
+        <v>1.054714066743893</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035654175337149</v>
+        <v>1.069168271351015</v>
       </c>
       <c r="J22">
-        <v>1.006463353129266</v>
+        <v>1.060638875050497</v>
       </c>
       <c r="K22">
-        <v>1.016175343644501</v>
+        <v>1.066390178871133</v>
       </c>
       <c r="L22">
-        <v>1.008989638026257</v>
+        <v>1.056524535694621</v>
       </c>
       <c r="M22">
-        <v>1.016513740996065</v>
+        <v>1.069274335094813</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9786471332046952</v>
+        <v>1.034362503962702</v>
       </c>
       <c r="D23">
-        <v>1.003804461586729</v>
+        <v>1.054368371160612</v>
       </c>
       <c r="E23">
-        <v>0.9967525594443258</v>
+        <v>1.044507946197627</v>
       </c>
       <c r="F23">
-        <v>1.00453261899453</v>
+        <v>1.057517359674388</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03686410102706</v>
+        <v>1.070673980459655</v>
       </c>
       <c r="J23">
-        <v>1.009670361520842</v>
+        <v>1.063042099619799</v>
       </c>
       <c r="K23">
-        <v>1.018989852547737</v>
+        <v>1.068644919539992</v>
       </c>
       <c r="L23">
-        <v>1.012074314205371</v>
+        <v>1.058952793418129</v>
       </c>
       <c r="M23">
-        <v>1.01970407216378</v>
+        <v>1.0717410129163</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9940023321076343</v>
+        <v>1.046334169195031</v>
       </c>
       <c r="D24">
-        <v>1.015817210272532</v>
+        <v>1.064211856113404</v>
       </c>
       <c r="E24">
-        <v>1.009826027209468</v>
+        <v>1.055037277912479</v>
       </c>
       <c r="F24">
-        <v>1.01799427244739</v>
+        <v>1.068176602964607</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041391597370207</v>
+        <v>1.076369078648341</v>
       </c>
       <c r="J24">
-        <v>1.021733228254827</v>
+        <v>1.07215831746806</v>
       </c>
       <c r="K24">
-        <v>1.029572137266712</v>
+        <v>1.07719795614724</v>
       </c>
       <c r="L24">
-        <v>1.023682756476578</v>
+        <v>1.068162218465351</v>
       </c>
       <c r="M24">
-        <v>1.031712589412055</v>
+        <v>1.081103641907363</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010549980793134</v>
+        <v>1.059419876267646</v>
       </c>
       <c r="D25">
-        <v>1.028793576793328</v>
+        <v>1.074989675840357</v>
       </c>
       <c r="E25">
-        <v>1.023960337280425</v>
+        <v>1.066556229344511</v>
       </c>
       <c r="F25">
-        <v>1.032550124845701</v>
+        <v>1.079852201009063</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046218395718873</v>
+        <v>1.08254608975078</v>
       </c>
       <c r="J25">
-        <v>1.034727438616054</v>
+        <v>1.082100611820365</v>
       </c>
       <c r="K25">
-        <v>1.040960767902672</v>
+        <v>1.086525614906691</v>
       </c>
       <c r="L25">
-        <v>1.036197747248727</v>
+        <v>1.078202289995136</v>
       </c>
       <c r="M25">
-        <v>1.044663314377734</v>
+        <v>1.091325623708447</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.069295225394701</v>
+        <v>1.092547051789356</v>
       </c>
       <c r="D2">
-        <v>1.083134481599874</v>
+        <v>1.095061633883406</v>
       </c>
       <c r="E2">
-        <v>1.075254068298478</v>
+        <v>1.094370488614894</v>
       </c>
       <c r="F2">
-        <v>1.088679560500015</v>
+        <v>1.105850107209807</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.087167535982355</v>
+        <v>1.074865683611512</v>
       </c>
       <c r="J2">
-        <v>1.089583948547387</v>
+        <v>1.09736728733586</v>
       </c>
       <c r="K2">
-        <v>1.093545509072226</v>
+        <v>1.09769739405178</v>
       </c>
       <c r="L2">
-        <v>1.085755861210863</v>
+        <v>1.097008004927287</v>
       </c>
       <c r="M2">
-        <v>1.099027691134929</v>
+        <v>1.108458761183432</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.07617739213694</v>
+        <v>1.093903339520339</v>
       </c>
       <c r="D3">
-        <v>1.088815567251889</v>
+        <v>1.09618666833401</v>
       </c>
       <c r="E3">
-        <v>1.081317182206039</v>
+        <v>1.095583711910469</v>
       </c>
       <c r="F3">
-        <v>1.094839304379415</v>
+        <v>1.10709306257443</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.090364247401681</v>
+        <v>1.075402019186793</v>
       </c>
       <c r="J3">
-        <v>1.094786800384323</v>
+        <v>1.098387544671605</v>
       </c>
       <c r="K3">
-        <v>1.098425461583392</v>
+        <v>1.098642669306878</v>
       </c>
       <c r="L3">
-        <v>1.091005492468218</v>
+        <v>1.098041134009831</v>
       </c>
       <c r="M3">
-        <v>1.104387152748009</v>
+        <v>1.109523644434394</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.080508151979393</v>
+        <v>1.094779930220305</v>
       </c>
       <c r="D4">
-        <v>1.092392364472716</v>
+        <v>1.096913706579135</v>
       </c>
       <c r="E4">
-        <v>1.085132888550594</v>
+        <v>1.096367522697387</v>
       </c>
       <c r="F4">
-        <v>1.098718714458065</v>
+        <v>1.107896475731042</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.092364506975659</v>
+        <v>1.075747285865876</v>
       </c>
       <c r="J4">
-        <v>1.098054853169285</v>
+        <v>1.099046155134506</v>
       </c>
       <c r="K4">
-        <v>1.101490310451919</v>
+        <v>1.099252796655644</v>
       </c>
       <c r="L4">
-        <v>1.09430194778609</v>
+        <v>1.098707835193246</v>
       </c>
       <c r="M4">
-        <v>1.107755615562564</v>
+        <v>1.110211258595817</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.08230096723038</v>
+        <v>1.095148209904217</v>
       </c>
       <c r="D5">
-        <v>1.09387344197101</v>
+        <v>1.097219133103953</v>
       </c>
       <c r="E5">
-        <v>1.086712520412488</v>
+        <v>1.096696747282982</v>
       </c>
       <c r="F5">
-        <v>1.100325406790178</v>
+        <v>1.108234028007825</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.093189801335228</v>
+        <v>1.075892012335355</v>
       </c>
       <c r="J5">
-        <v>1.099406269331978</v>
+        <v>1.099322664036074</v>
       </c>
       <c r="K5">
-        <v>1.102757596282347</v>
+        <v>1.09950893134995</v>
       </c>
       <c r="L5">
-        <v>1.095664869212835</v>
+        <v>1.09898768861921</v>
       </c>
       <c r="M5">
-        <v>1.109149035406448</v>
+        <v>1.110499991235378</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.082600397504727</v>
+        <v>1.095210031802221</v>
       </c>
       <c r="D6">
-        <v>1.09412082756811</v>
+        <v>1.097270402735818</v>
       </c>
       <c r="E6">
-        <v>1.086976346104857</v>
+        <v>1.09675200868072</v>
       </c>
       <c r="F6">
-        <v>1.100593792372077</v>
+        <v>1.108290692748272</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.093327476146647</v>
+        <v>1.075916287764307</v>
       </c>
       <c r="J6">
-        <v>1.099631891174679</v>
+        <v>1.099369069448314</v>
       </c>
       <c r="K6">
-        <v>1.102969166200928</v>
+        <v>1.099551916307367</v>
       </c>
       <c r="L6">
-        <v>1.095892397652908</v>
+        <v>1.099034652266051</v>
       </c>
       <c r="M6">
-        <v>1.109381697986258</v>
+        <v>1.110548450860428</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.080532215163806</v>
+        <v>1.094784852124899</v>
       </c>
       <c r="D7">
-        <v>1.092412242076138</v>
+        <v>1.096917788565025</v>
       </c>
       <c r="E7">
-        <v>1.085154090312902</v>
+        <v>1.096371922944853</v>
       </c>
       <c r="F7">
-        <v>1.098740276708891</v>
+        <v>1.107900986912526</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.092375595042913</v>
+        <v>1.075749221370079</v>
       </c>
       <c r="J7">
-        <v>1.098072997745324</v>
+        <v>1.099049851313098</v>
       </c>
       <c r="K7">
-        <v>1.10150732587588</v>
+        <v>1.099256220561725</v>
       </c>
       <c r="L7">
-        <v>1.094320247790764</v>
+        <v>1.098711576284521</v>
       </c>
       <c r="M7">
-        <v>1.107774322196855</v>
+        <v>1.11021511798842</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.071647370453168</v>
+        <v>1.0930056292286</v>
       </c>
       <c r="D8">
-        <v>1.085075701193612</v>
+        <v>1.095442039989701</v>
       </c>
       <c r="E8">
-        <v>1.077326175806169</v>
+        <v>1.094780759327748</v>
       </c>
       <c r="F8">
-        <v>1.090784079102664</v>
+        <v>1.10627035056697</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.088262456409575</v>
+        <v>1.075047310197882</v>
       </c>
       <c r="J8">
-        <v>1.091363379827544</v>
+        <v>1.097712414109124</v>
       </c>
       <c r="K8">
-        <v>1.095214580197241</v>
+        <v>1.09801717275362</v>
       </c>
       <c r="L8">
-        <v>1.087551495651999</v>
+        <v>1.097357531201517</v>
       </c>
       <c r="M8">
-        <v>1.10086024953301</v>
+        <v>1.10881894304293</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.054980291879033</v>
+        <v>1.089862402254349</v>
       </c>
       <c r="D9">
-        <v>1.071331090931708</v>
+        <v>1.092834277997749</v>
       </c>
       <c r="E9">
-        <v>1.062647235225486</v>
+        <v>1.091967358149237</v>
       </c>
       <c r="F9">
-        <v>1.075888236776522</v>
+        <v>1.103390189093312</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.080456692266417</v>
+        <v>1.073796739571401</v>
       </c>
       <c r="J9">
-        <v>1.078730512345373</v>
+        <v>1.095343539088143</v>
       </c>
       <c r="K9">
-        <v>1.08336395549402</v>
+        <v>1.095821958852635</v>
       </c>
       <c r="L9">
-        <v>1.074799566387395</v>
+        <v>1.094957557973354</v>
       </c>
       <c r="M9">
-        <v>1.087859377340504</v>
+        <v>1.106347542973437</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.043075996471501</v>
+        <v>1.087761235864156</v>
       </c>
       <c r="D10">
-        <v>1.06153120918722</v>
+        <v>1.0910906482932</v>
       </c>
       <c r="E10">
-        <v>1.052170692621895</v>
+        <v>1.090085071870448</v>
       </c>
       <c r="F10">
-        <v>1.065273454632928</v>
+        <v>1.10146528933287</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.074822914357404</v>
+        <v>1.07295367327229</v>
       </c>
       <c r="J10">
-        <v>1.069678967390854</v>
+        <v>1.09375590215109</v>
       </c>
       <c r="K10">
-        <v>1.074871783468673</v>
+        <v>1.094350310977559</v>
       </c>
       <c r="L10">
-        <v>1.065657818037107</v>
+        <v>1.093347944010548</v>
       </c>
       <c r="M10">
-        <v>1.078556358775563</v>
+        <v>1.104692213637827</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.037704088902202</v>
+        <v>1.086849993315685</v>
       </c>
       <c r="D11">
-        <v>1.05711420122956</v>
+        <v>1.090334375030106</v>
       </c>
       <c r="E11">
-        <v>1.047445937856868</v>
+        <v>1.089268378542999</v>
       </c>
       <c r="F11">
-        <v>1.060490405820026</v>
+        <v>1.100630595982352</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.072267366515458</v>
+        <v>1.072586368100142</v>
       </c>
       <c r="J11">
-        <v>1.065588306210904</v>
+        <v>1.093066397959227</v>
       </c>
       <c r="K11">
-        <v>1.071033826298216</v>
+        <v>1.093711087300124</v>
       </c>
       <c r="L11">
-        <v>1.061525325929777</v>
+        <v>1.092648625495523</v>
       </c>
       <c r="M11">
-        <v>1.074355122021361</v>
+        <v>1.103973553804273</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.03567325117962</v>
+        <v>1.086511297544612</v>
       </c>
       <c r="D12">
-        <v>1.055445267132858</v>
+        <v>1.090053266462171</v>
       </c>
       <c r="E12">
-        <v>1.045660283997145</v>
+        <v>1.088964769250034</v>
       </c>
       <c r="F12">
-        <v>1.058683339623681</v>
+        <v>1.100320368829793</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.071299316850773</v>
+        <v>1.072449593642548</v>
       </c>
       <c r="J12">
-        <v>1.064040996251525</v>
+        <v>1.092809973427754</v>
       </c>
       <c r="K12">
-        <v>1.069582104614577</v>
+        <v>1.093473348106867</v>
       </c>
       <c r="L12">
-        <v>1.059962042864653</v>
+        <v>1.092388510457847</v>
       </c>
       <c r="M12">
-        <v>1.07276646488077</v>
+        <v>1.10370632294054</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.036110527038784</v>
+        <v>1.086583958973782</v>
       </c>
       <c r="D13">
-        <v>1.055804575783941</v>
+        <v>1.090113574096143</v>
       </c>
       <c r="E13">
-        <v>1.046044741790562</v>
+        <v>1.089029906004496</v>
       </c>
       <c r="F13">
-        <v>1.059072379447136</v>
+        <v>1.100386922049508</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.071507841425628</v>
+        <v>1.0724789476998</v>
       </c>
       <c r="J13">
-        <v>1.06437419683824</v>
+        <v>1.092864991549393</v>
       </c>
       <c r="K13">
-        <v>1.069894720689154</v>
+        <v>1.093524357749619</v>
       </c>
       <c r="L13">
-        <v>1.060298689747382</v>
+        <v>1.092444322247125</v>
       </c>
       <c r="M13">
-        <v>1.073108547357888</v>
+        <v>1.103763657999668</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.037536960390626</v>
+        <v>1.086822001133555</v>
       </c>
       <c r="D14">
-        <v>1.056976836628466</v>
+        <v>1.090311142510543</v>
       </c>
       <c r="E14">
-        <v>1.047298975501908</v>
+        <v>1.089243287294793</v>
       </c>
       <c r="F14">
-        <v>1.060341668570028</v>
+        <v>1.100604956308066</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.072187739308721</v>
+        <v>1.072575069251658</v>
       </c>
       <c r="J14">
-        <v>1.065460986500579</v>
+        <v>1.093045208217461</v>
       </c>
       <c r="K14">
-        <v>1.070914371891449</v>
+        <v>1.093691441909858</v>
       </c>
       <c r="L14">
-        <v>1.061396694869205</v>
+        <v>1.092627131615338</v>
       </c>
       <c r="M14">
-        <v>1.074224390268039</v>
+        <v>1.103951470330994</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.038411042374918</v>
+        <v>1.086968637475199</v>
       </c>
       <c r="D15">
-        <v>1.05769529093128</v>
+        <v>1.090432844965479</v>
       </c>
       <c r="E15">
-        <v>1.048067610630425</v>
+        <v>1.089374724871778</v>
       </c>
       <c r="F15">
-        <v>1.061119611905629</v>
+        <v>1.100739269770678</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.072604111424969</v>
+        <v>1.072634247652136</v>
       </c>
       <c r="J15">
-        <v>1.066126834570859</v>
+        <v>1.093156204181448</v>
       </c>
       <c r="K15">
-        <v>1.071539086701117</v>
+        <v>1.09379434769675</v>
       </c>
       <c r="L15">
-        <v>1.062069394898601</v>
+        <v>1.092739719053433</v>
       </c>
       <c r="M15">
-        <v>1.074908101968732</v>
+        <v>1.104067149330471</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.043427700538497</v>
+        <v>1.087821681539687</v>
       </c>
       <c r="D16">
-        <v>1.061820513547358</v>
+        <v>1.091140812542667</v>
       </c>
       <c r="E16">
-        <v>1.05248009441382</v>
+        <v>1.09013923790787</v>
       </c>
       <c r="F16">
-        <v>1.065586758634937</v>
+        <v>1.101520659515508</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.074989958888619</v>
+        <v>1.072978002436918</v>
       </c>
       <c r="J16">
-        <v>1.06994666665564</v>
+        <v>1.093801618768132</v>
       </c>
       <c r="K16">
-        <v>1.075122944763877</v>
+        <v>1.094392691869211</v>
       </c>
       <c r="L16">
-        <v>1.065928233504656</v>
+        <v>1.093394305670274</v>
       </c>
       <c r="M16">
-        <v>1.078831359284224</v>
+        <v>1.104739868496715</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.046514451394961</v>
+        <v>1.088356388289696</v>
       </c>
       <c r="D17">
-        <v>1.064360217650743</v>
+        <v>1.091584558910458</v>
       </c>
       <c r="E17">
-        <v>1.055195911831619</v>
+        <v>1.09061835121584</v>
       </c>
       <c r="F17">
-        <v>1.068337287292264</v>
+        <v>1.102010480304643</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.076454542960983</v>
+        <v>1.073193025974296</v>
       </c>
       <c r="J17">
-        <v>1.072295465036838</v>
+        <v>1.094205919135194</v>
       </c>
       <c r="K17">
-        <v>1.07732662994624</v>
+        <v>1.094767481634906</v>
       </c>
       <c r="L17">
-        <v>1.068300744609797</v>
+        <v>1.093804279423583</v>
       </c>
       <c r="M17">
-        <v>1.081244567755618</v>
+        <v>1.105161337961812</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.048294145329558</v>
+        <v>1.088668136726491</v>
       </c>
       <c r="D18">
-        <v>1.06582499452959</v>
+        <v>1.091843266398529</v>
       </c>
       <c r="E18">
-        <v>1.05676200381276</v>
+        <v>1.090897650949365</v>
       </c>
       <c r="F18">
-        <v>1.069923776295579</v>
+        <v>1.102296069114782</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.077297709644367</v>
+        <v>1.073318228469438</v>
       </c>
       <c r="J18">
-        <v>1.073649108798875</v>
+        <v>1.094441543503309</v>
       </c>
       <c r="K18">
-        <v>1.078596633179578</v>
+        <v>1.094985898389372</v>
       </c>
       <c r="L18">
-        <v>1.069667953452541</v>
+        <v>1.094043184233238</v>
       </c>
       <c r="M18">
-        <v>1.082635619689279</v>
+        <v>1.105406991789387</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.04889753513336</v>
+        <v>1.088774411831223</v>
       </c>
       <c r="D19">
-        <v>1.066321693936632</v>
+        <v>1.091931458354767</v>
       </c>
       <c r="E19">
-        <v>1.057293015600089</v>
+        <v>1.090992858129788</v>
       </c>
       <c r="F19">
-        <v>1.070461768316592</v>
+        <v>1.102393428092578</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.077583363819723</v>
+        <v>1.073360882540902</v>
       </c>
       <c r="J19">
-        <v>1.074107950174716</v>
+        <v>1.094521852009795</v>
       </c>
       <c r="K19">
-        <v>1.079027121004886</v>
+        <v>1.095060340450779</v>
       </c>
       <c r="L19">
-        <v>1.0701313755745</v>
+        <v>1.094124606416492</v>
       </c>
       <c r="M19">
-        <v>1.083107189570142</v>
+        <v>1.105490722629399</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.046185438497572</v>
+        <v>1.088299033526399</v>
       </c>
       <c r="D20">
-        <v>1.064089462335911</v>
+        <v>1.09153696180231</v>
       </c>
       <c r="E20">
-        <v>1.05490640826997</v>
+        <v>1.090566963370951</v>
       </c>
       <c r="F20">
-        <v>1.068044043933512</v>
+        <v>1.101957939138369</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.07629856448809</v>
+        <v>1.073169978458847</v>
       </c>
       <c r="J20">
-        <v>1.072045169055136</v>
+        <v>1.094162561962378</v>
       </c>
       <c r="K20">
-        <v>1.077091798639438</v>
+        <v>1.094727290106422</v>
       </c>
       <c r="L20">
-        <v>1.068047932137631</v>
+        <v>1.093760316525501</v>
       </c>
       <c r="M20">
-        <v>1.080987377996882</v>
+        <v>1.105116137154265</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.037117914922437</v>
+        <v>1.086751909762751</v>
       </c>
       <c r="D21">
-        <v>1.056632433933763</v>
+        <v>1.090252968953618</v>
       </c>
       <c r="E21">
-        <v>1.046930502003144</v>
+        <v>1.089180458848225</v>
       </c>
       <c r="F21">
-        <v>1.05996875493545</v>
+        <v>1.10054075579496</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.07198805720594</v>
+        <v>1.072546773283905</v>
       </c>
       <c r="J21">
-        <v>1.065141741290469</v>
+        <v>1.092992147548363</v>
       </c>
       <c r="K21">
-        <v>1.070614848463539</v>
+        <v>1.093642248187397</v>
       </c>
       <c r="L21">
-        <v>1.061074159157529</v>
+        <v>1.09257330870563</v>
       </c>
       <c r="M21">
-        <v>1.073896597356351</v>
+        <v>1.103896172283289</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.031209917115118</v>
+        <v>1.085777897531628</v>
       </c>
       <c r="D22">
-        <v>1.051779124983261</v>
+        <v>1.089444541357288</v>
       </c>
       <c r="E22">
-        <v>1.041736903910081</v>
+        <v>1.088307241991662</v>
       </c>
       <c r="F22">
-        <v>1.054714066743893</v>
+        <v>1.099648644371218</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.069168271351015</v>
+        <v>1.072152965434763</v>
       </c>
       <c r="J22">
-        <v>1.060638875050497</v>
+        <v>1.092254454344442</v>
       </c>
       <c r="K22">
-        <v>1.066390178871133</v>
+        <v>1.092958283861301</v>
       </c>
       <c r="L22">
-        <v>1.056524535694621</v>
+        <v>1.091824921922994</v>
       </c>
       <c r="M22">
-        <v>1.069274335094813</v>
+        <v>1.103127459954871</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.034362503962702</v>
+        <v>1.086294362569605</v>
       </c>
       <c r="D23">
-        <v>1.054368371160612</v>
+        <v>1.089873212668502</v>
       </c>
       <c r="E23">
-        <v>1.044507946197627</v>
+        <v>1.088770291443003</v>
       </c>
       <c r="F23">
-        <v>1.057517359674388</v>
+        <v>1.100121672717035</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.070673980459655</v>
+        <v>1.072361918425667</v>
       </c>
       <c r="J23">
-        <v>1.063042099619799</v>
+        <v>1.092645692262646</v>
       </c>
       <c r="K23">
-        <v>1.068644919539992</v>
+        <v>1.093321034030583</v>
       </c>
       <c r="L23">
-        <v>1.058952793418129</v>
+        <v>1.092221853495735</v>
       </c>
       <c r="M23">
-        <v>1.0717410129163</v>
+        <v>1.103535128883842</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.046334169195031</v>
+        <v>1.088324950097975</v>
       </c>
       <c r="D24">
-        <v>1.064211856113404</v>
+        <v>1.091558469264247</v>
       </c>
       <c r="E24">
-        <v>1.055037277912479</v>
+        <v>1.090590183816959</v>
       </c>
       <c r="F24">
-        <v>1.068176602964607</v>
+        <v>1.101981680586029</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.076369078648341</v>
+        <v>1.073180393309648</v>
       </c>
       <c r="J24">
-        <v>1.07215831746806</v>
+        <v>1.094182153811533</v>
       </c>
       <c r="K24">
-        <v>1.07719795614724</v>
+        <v>1.09474545152045</v>
       </c>
       <c r="L24">
-        <v>1.068162218465351</v>
+        <v>1.093780182164642</v>
       </c>
       <c r="M24">
-        <v>1.081103641907363</v>
+        <v>1.105136562016212</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.059419876267646</v>
+        <v>1.090675981354331</v>
       </c>
       <c r="D25">
-        <v>1.074989675840357</v>
+        <v>1.093509334200745</v>
       </c>
       <c r="E25">
-        <v>1.066556229344511</v>
+        <v>1.092695849543977</v>
       </c>
       <c r="F25">
-        <v>1.079852201009063</v>
+        <v>1.104135606906982</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.08254608975078</v>
+        <v>1.0741216807572</v>
       </c>
       <c r="J25">
-        <v>1.082100611820365</v>
+        <v>1.09595741176209</v>
       </c>
       <c r="K25">
-        <v>1.086525614906691</v>
+        <v>1.096390899718363</v>
       </c>
       <c r="L25">
-        <v>1.078202289995136</v>
+        <v>1.095579688785506</v>
       </c>
       <c r="M25">
-        <v>1.091325623708447</v>
+        <v>1.10698780490466</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.092547051789356</v>
+        <v>1.069295225394698</v>
       </c>
       <c r="D2">
-        <v>1.095061633883406</v>
+        <v>1.083134481599872</v>
       </c>
       <c r="E2">
-        <v>1.094370488614894</v>
+        <v>1.075254068298475</v>
       </c>
       <c r="F2">
-        <v>1.105850107209807</v>
+        <v>1.088679560500012</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.074865683611512</v>
+        <v>1.087167535982353</v>
       </c>
       <c r="J2">
-        <v>1.09736728733586</v>
+        <v>1.089583948547385</v>
       </c>
       <c r="K2">
-        <v>1.09769739405178</v>
+        <v>1.093545509072224</v>
       </c>
       <c r="L2">
-        <v>1.097008004927287</v>
+        <v>1.08575586121086</v>
       </c>
       <c r="M2">
-        <v>1.108458761183432</v>
+        <v>1.099027691134927</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.093903339520339</v>
+        <v>1.076177392136942</v>
       </c>
       <c r="D3">
-        <v>1.09618666833401</v>
+        <v>1.088815567251891</v>
       </c>
       <c r="E3">
-        <v>1.095583711910469</v>
+        <v>1.081317182206041</v>
       </c>
       <c r="F3">
-        <v>1.10709306257443</v>
+        <v>1.094839304379417</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.075402019186793</v>
+        <v>1.090364247401683</v>
       </c>
       <c r="J3">
-        <v>1.098387544671605</v>
+        <v>1.094786800384324</v>
       </c>
       <c r="K3">
-        <v>1.098642669306878</v>
+        <v>1.098425461583394</v>
       </c>
       <c r="L3">
-        <v>1.098041134009831</v>
+        <v>1.09100549246822</v>
       </c>
       <c r="M3">
-        <v>1.109523644434394</v>
+        <v>1.10438715274801</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.094779930220305</v>
+        <v>1.080508151979393</v>
       </c>
       <c r="D4">
-        <v>1.096913706579135</v>
+        <v>1.092392364472716</v>
       </c>
       <c r="E4">
-        <v>1.096367522697387</v>
+        <v>1.085132888550594</v>
       </c>
       <c r="F4">
-        <v>1.107896475731042</v>
+        <v>1.098718714458065</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.075747285865876</v>
+        <v>1.09236450697566</v>
       </c>
       <c r="J4">
-        <v>1.099046155134506</v>
+        <v>1.098054853169285</v>
       </c>
       <c r="K4">
-        <v>1.099252796655644</v>
+        <v>1.10149031045192</v>
       </c>
       <c r="L4">
-        <v>1.098707835193246</v>
+        <v>1.09430194778609</v>
       </c>
       <c r="M4">
-        <v>1.110211258595817</v>
+        <v>1.107755615562564</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.095148209904217</v>
+        <v>1.08230096723038</v>
       </c>
       <c r="D5">
-        <v>1.097219133103953</v>
+        <v>1.09387344197101</v>
       </c>
       <c r="E5">
-        <v>1.096696747282982</v>
+        <v>1.086712520412488</v>
       </c>
       <c r="F5">
-        <v>1.108234028007825</v>
+        <v>1.100325406790178</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.075892012335355</v>
+        <v>1.093189801335228</v>
       </c>
       <c r="J5">
-        <v>1.099322664036074</v>
+        <v>1.099406269331977</v>
       </c>
       <c r="K5">
-        <v>1.09950893134995</v>
+        <v>1.102757596282347</v>
       </c>
       <c r="L5">
-        <v>1.09898768861921</v>
+        <v>1.095664869212835</v>
       </c>
       <c r="M5">
-        <v>1.110499991235378</v>
+        <v>1.109149035406448</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.095210031802221</v>
+        <v>1.082600397504726</v>
       </c>
       <c r="D6">
-        <v>1.097270402735818</v>
+        <v>1.09412082756811</v>
       </c>
       <c r="E6">
-        <v>1.09675200868072</v>
+        <v>1.086976346104857</v>
       </c>
       <c r="F6">
-        <v>1.108290692748272</v>
+        <v>1.100593792372077</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.075916287764307</v>
+        <v>1.093327476146647</v>
       </c>
       <c r="J6">
-        <v>1.099369069448314</v>
+        <v>1.099631891174679</v>
       </c>
       <c r="K6">
-        <v>1.099551916307367</v>
+        <v>1.102969166200927</v>
       </c>
       <c r="L6">
-        <v>1.099034652266051</v>
+        <v>1.095892397652907</v>
       </c>
       <c r="M6">
-        <v>1.110548450860428</v>
+        <v>1.109381697986258</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.094784852124899</v>
+        <v>1.080532215163806</v>
       </c>
       <c r="D7">
-        <v>1.096917788565025</v>
+        <v>1.092412242076138</v>
       </c>
       <c r="E7">
-        <v>1.096371922944853</v>
+        <v>1.085154090312902</v>
       </c>
       <c r="F7">
-        <v>1.107900986912526</v>
+        <v>1.09874027670889</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.075749221370079</v>
+        <v>1.092375595042913</v>
       </c>
       <c r="J7">
-        <v>1.099049851313098</v>
+        <v>1.098072997745324</v>
       </c>
       <c r="K7">
-        <v>1.099256220561725</v>
+        <v>1.10150732587588</v>
       </c>
       <c r="L7">
-        <v>1.098711576284521</v>
+        <v>1.094320247790763</v>
       </c>
       <c r="M7">
-        <v>1.11021511798842</v>
+        <v>1.107774322196855</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0930056292286</v>
+        <v>1.071647370453169</v>
       </c>
       <c r="D8">
-        <v>1.095442039989701</v>
+        <v>1.085075701193613</v>
       </c>
       <c r="E8">
-        <v>1.094780759327748</v>
+        <v>1.077326175806171</v>
       </c>
       <c r="F8">
-        <v>1.10627035056697</v>
+        <v>1.090784079102665</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.075047310197882</v>
+        <v>1.088262456409576</v>
       </c>
       <c r="J8">
-        <v>1.097712414109124</v>
+        <v>1.091363379827546</v>
       </c>
       <c r="K8">
-        <v>1.09801717275362</v>
+        <v>1.095214580197242</v>
       </c>
       <c r="L8">
-        <v>1.097357531201517</v>
+        <v>1.087551495652</v>
       </c>
       <c r="M8">
-        <v>1.10881894304293</v>
+        <v>1.100860249533011</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.089862402254349</v>
+        <v>1.054980291879034</v>
       </c>
       <c r="D9">
-        <v>1.092834277997749</v>
+        <v>1.071331090931708</v>
       </c>
       <c r="E9">
-        <v>1.091967358149237</v>
+        <v>1.062647235225486</v>
       </c>
       <c r="F9">
-        <v>1.103390189093312</v>
+        <v>1.075888236776522</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.073796739571401</v>
+        <v>1.080456692266418</v>
       </c>
       <c r="J9">
-        <v>1.095343539088143</v>
+        <v>1.078730512345374</v>
       </c>
       <c r="K9">
-        <v>1.095821958852635</v>
+        <v>1.083363955494021</v>
       </c>
       <c r="L9">
-        <v>1.094957557973354</v>
+        <v>1.074799566387396</v>
       </c>
       <c r="M9">
-        <v>1.106347542973437</v>
+        <v>1.087859377340505</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.087761235864156</v>
+        <v>1.043075996471497</v>
       </c>
       <c r="D10">
-        <v>1.0910906482932</v>
+        <v>1.061531209187216</v>
       </c>
       <c r="E10">
-        <v>1.090085071870448</v>
+        <v>1.052170692621891</v>
       </c>
       <c r="F10">
-        <v>1.10146528933287</v>
+        <v>1.065273454632924</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.07295367327229</v>
+        <v>1.074822914357402</v>
       </c>
       <c r="J10">
-        <v>1.09375590215109</v>
+        <v>1.06967896739085</v>
       </c>
       <c r="K10">
-        <v>1.094350310977559</v>
+        <v>1.07487178346867</v>
       </c>
       <c r="L10">
-        <v>1.093347944010548</v>
+        <v>1.065657818037103</v>
       </c>
       <c r="M10">
-        <v>1.104692213637827</v>
+        <v>1.07855635877556</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.086849993315685</v>
+        <v>1.0377040889022</v>
       </c>
       <c r="D11">
-        <v>1.090334375030106</v>
+        <v>1.057114201229558</v>
       </c>
       <c r="E11">
-        <v>1.089268378542999</v>
+        <v>1.047445937856866</v>
       </c>
       <c r="F11">
-        <v>1.100630595982352</v>
+        <v>1.060490405820025</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.072586368100142</v>
+        <v>1.072267366515457</v>
       </c>
       <c r="J11">
-        <v>1.093066397959227</v>
+        <v>1.065588306210902</v>
       </c>
       <c r="K11">
-        <v>1.093711087300124</v>
+        <v>1.071033826298214</v>
       </c>
       <c r="L11">
-        <v>1.092648625495523</v>
+        <v>1.061525325929776</v>
       </c>
       <c r="M11">
-        <v>1.103973553804273</v>
+        <v>1.074355122021359</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.086511297544612</v>
+        <v>1.035673251179619</v>
       </c>
       <c r="D12">
-        <v>1.090053266462171</v>
+        <v>1.055445267132857</v>
       </c>
       <c r="E12">
-        <v>1.088964769250034</v>
+        <v>1.045660283997144</v>
       </c>
       <c r="F12">
-        <v>1.100320368829793</v>
+        <v>1.058683339623681</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.072449593642548</v>
+        <v>1.071299316850772</v>
       </c>
       <c r="J12">
-        <v>1.092809973427754</v>
+        <v>1.064040996251523</v>
       </c>
       <c r="K12">
-        <v>1.093473348106867</v>
+        <v>1.069582104614576</v>
       </c>
       <c r="L12">
-        <v>1.092388510457847</v>
+        <v>1.059962042864652</v>
       </c>
       <c r="M12">
-        <v>1.10370632294054</v>
+        <v>1.072766464880769</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.086583958973782</v>
+        <v>1.036110527038781</v>
       </c>
       <c r="D13">
-        <v>1.090113574096143</v>
+        <v>1.055804575783939</v>
       </c>
       <c r="E13">
-        <v>1.089029906004496</v>
+        <v>1.04604474179056</v>
       </c>
       <c r="F13">
-        <v>1.100386922049508</v>
+        <v>1.059072379447134</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0724789476998</v>
+        <v>1.071507841425626</v>
       </c>
       <c r="J13">
-        <v>1.092864991549393</v>
+        <v>1.064374196838238</v>
       </c>
       <c r="K13">
-        <v>1.093524357749619</v>
+        <v>1.069894720689152</v>
       </c>
       <c r="L13">
-        <v>1.092444322247125</v>
+        <v>1.06029868974738</v>
       </c>
       <c r="M13">
-        <v>1.103763657999668</v>
+        <v>1.073108547357886</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.086822001133555</v>
+        <v>1.037536960390623</v>
       </c>
       <c r="D14">
-        <v>1.090311142510543</v>
+        <v>1.056976836628464</v>
       </c>
       <c r="E14">
-        <v>1.089243287294793</v>
+        <v>1.047298975501906</v>
       </c>
       <c r="F14">
-        <v>1.100604956308066</v>
+        <v>1.060341668570026</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.072575069251658</v>
+        <v>1.072187739308719</v>
       </c>
       <c r="J14">
-        <v>1.093045208217461</v>
+        <v>1.065460986500577</v>
       </c>
       <c r="K14">
-        <v>1.093691441909858</v>
+        <v>1.070914371891447</v>
       </c>
       <c r="L14">
-        <v>1.092627131615338</v>
+        <v>1.061396694869203</v>
       </c>
       <c r="M14">
-        <v>1.103951470330994</v>
+        <v>1.074224390268037</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.086968637475199</v>
+        <v>1.038411042374915</v>
       </c>
       <c r="D15">
-        <v>1.090432844965479</v>
+        <v>1.057695290931278</v>
       </c>
       <c r="E15">
-        <v>1.089374724871778</v>
+        <v>1.048067610630423</v>
       </c>
       <c r="F15">
-        <v>1.100739269770678</v>
+        <v>1.061119611905626</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.072634247652136</v>
+        <v>1.072604111424967</v>
       </c>
       <c r="J15">
-        <v>1.093156204181448</v>
+        <v>1.066126834570856</v>
       </c>
       <c r="K15">
-        <v>1.09379434769675</v>
+        <v>1.071539086701114</v>
       </c>
       <c r="L15">
-        <v>1.092739719053433</v>
+        <v>1.062069394898598</v>
       </c>
       <c r="M15">
-        <v>1.104067149330471</v>
+        <v>1.074908101968729</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.087821681539687</v>
+        <v>1.043427700538496</v>
       </c>
       <c r="D16">
-        <v>1.091140812542667</v>
+        <v>1.061820513547358</v>
       </c>
       <c r="E16">
-        <v>1.09013923790787</v>
+        <v>1.05248009441382</v>
       </c>
       <c r="F16">
-        <v>1.101520659515508</v>
+        <v>1.065586758634938</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.072978002436918</v>
+        <v>1.074989958888619</v>
       </c>
       <c r="J16">
-        <v>1.093801618768132</v>
+        <v>1.06994666665564</v>
       </c>
       <c r="K16">
-        <v>1.094392691869211</v>
+        <v>1.075122944763876</v>
       </c>
       <c r="L16">
-        <v>1.093394305670274</v>
+        <v>1.065928233504656</v>
       </c>
       <c r="M16">
-        <v>1.104739868496715</v>
+        <v>1.078831359284224</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.088356388289696</v>
+        <v>1.046514451394961</v>
       </c>
       <c r="D17">
-        <v>1.091584558910458</v>
+        <v>1.064360217650743</v>
       </c>
       <c r="E17">
-        <v>1.09061835121584</v>
+        <v>1.055195911831619</v>
       </c>
       <c r="F17">
-        <v>1.102010480304643</v>
+        <v>1.068337287292263</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.073193025974296</v>
+        <v>1.076454542960983</v>
       </c>
       <c r="J17">
-        <v>1.094205919135194</v>
+        <v>1.072295465036838</v>
       </c>
       <c r="K17">
-        <v>1.094767481634906</v>
+        <v>1.07732662994624</v>
       </c>
       <c r="L17">
-        <v>1.093804279423583</v>
+        <v>1.068300744609797</v>
       </c>
       <c r="M17">
-        <v>1.105161337961812</v>
+        <v>1.081244567755618</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.088668136726491</v>
+        <v>1.048294145329559</v>
       </c>
       <c r="D18">
-        <v>1.091843266398529</v>
+        <v>1.065824994529592</v>
       </c>
       <c r="E18">
-        <v>1.090897650949365</v>
+        <v>1.056762003812761</v>
       </c>
       <c r="F18">
-        <v>1.102296069114782</v>
+        <v>1.06992377629558</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.073318228469438</v>
+        <v>1.077297709644368</v>
       </c>
       <c r="J18">
-        <v>1.094441543503309</v>
+        <v>1.073649108798876</v>
       </c>
       <c r="K18">
-        <v>1.094985898389372</v>
+        <v>1.07859663317958</v>
       </c>
       <c r="L18">
-        <v>1.094043184233238</v>
+        <v>1.069667953452542</v>
       </c>
       <c r="M18">
-        <v>1.105406991789387</v>
+        <v>1.082635619689281</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.088774411831223</v>
+        <v>1.048897535133358</v>
       </c>
       <c r="D19">
-        <v>1.091931458354767</v>
+        <v>1.06632169393663</v>
       </c>
       <c r="E19">
-        <v>1.090992858129788</v>
+        <v>1.057293015600088</v>
       </c>
       <c r="F19">
-        <v>1.102393428092578</v>
+        <v>1.07046176831659</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.073360882540902</v>
+        <v>1.077583363819722</v>
       </c>
       <c r="J19">
-        <v>1.094521852009795</v>
+        <v>1.074107950174714</v>
       </c>
       <c r="K19">
-        <v>1.095060340450779</v>
+        <v>1.079027121004885</v>
       </c>
       <c r="L19">
-        <v>1.094124606416492</v>
+        <v>1.070131375574498</v>
       </c>
       <c r="M19">
-        <v>1.105490722629399</v>
+        <v>1.08310718957014</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.088299033526399</v>
+        <v>1.046185438497572</v>
       </c>
       <c r="D20">
-        <v>1.09153696180231</v>
+        <v>1.064089462335911</v>
       </c>
       <c r="E20">
-        <v>1.090566963370951</v>
+        <v>1.05490640826997</v>
       </c>
       <c r="F20">
-        <v>1.101957939138369</v>
+        <v>1.068044043933511</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.073169978458847</v>
+        <v>1.07629856448809</v>
       </c>
       <c r="J20">
-        <v>1.094162561962378</v>
+        <v>1.072045169055136</v>
       </c>
       <c r="K20">
-        <v>1.094727290106422</v>
+        <v>1.077091798639439</v>
       </c>
       <c r="L20">
-        <v>1.093760316525501</v>
+        <v>1.068047932137631</v>
       </c>
       <c r="M20">
-        <v>1.105116137154265</v>
+        <v>1.080987377996882</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.086751909762751</v>
+        <v>1.037117914922435</v>
       </c>
       <c r="D21">
-        <v>1.090252968953618</v>
+        <v>1.056632433933761</v>
       </c>
       <c r="E21">
-        <v>1.089180458848225</v>
+        <v>1.046930502003142</v>
       </c>
       <c r="F21">
-        <v>1.10054075579496</v>
+        <v>1.059968754935448</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.072546773283905</v>
+        <v>1.071988057205939</v>
       </c>
       <c r="J21">
-        <v>1.092992147548363</v>
+        <v>1.065141741290467</v>
       </c>
       <c r="K21">
-        <v>1.093642248187397</v>
+        <v>1.070614848463537</v>
       </c>
       <c r="L21">
-        <v>1.09257330870563</v>
+        <v>1.061074159157528</v>
       </c>
       <c r="M21">
-        <v>1.103896172283289</v>
+        <v>1.073896597356349</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.085777897531628</v>
+        <v>1.031209917115116</v>
       </c>
       <c r="D22">
-        <v>1.089444541357288</v>
+        <v>1.051779124983259</v>
       </c>
       <c r="E22">
-        <v>1.088307241991662</v>
+        <v>1.04173690391008</v>
       </c>
       <c r="F22">
-        <v>1.099648644371218</v>
+        <v>1.054714066743891</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.072152965434763</v>
+        <v>1.069168271351014</v>
       </c>
       <c r="J22">
-        <v>1.092254454344442</v>
+        <v>1.060638875050495</v>
       </c>
       <c r="K22">
-        <v>1.092958283861301</v>
+        <v>1.066390178871131</v>
       </c>
       <c r="L22">
-        <v>1.091824921922994</v>
+        <v>1.05652453569462</v>
       </c>
       <c r="M22">
-        <v>1.103127459954871</v>
+        <v>1.069274335094812</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.086294362569605</v>
+        <v>1.034362503962702</v>
       </c>
       <c r="D23">
-        <v>1.089873212668502</v>
+        <v>1.054368371160612</v>
       </c>
       <c r="E23">
-        <v>1.088770291443003</v>
+        <v>1.044507946197627</v>
       </c>
       <c r="F23">
-        <v>1.100121672717035</v>
+        <v>1.057517359674388</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.072361918425667</v>
+        <v>1.070673980459655</v>
       </c>
       <c r="J23">
-        <v>1.092645692262646</v>
+        <v>1.063042099619799</v>
       </c>
       <c r="K23">
-        <v>1.093321034030583</v>
+        <v>1.068644919539991</v>
       </c>
       <c r="L23">
-        <v>1.092221853495735</v>
+        <v>1.058952793418129</v>
       </c>
       <c r="M23">
-        <v>1.103535128883842</v>
+        <v>1.071741012916301</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.088324950097975</v>
+        <v>1.04633416919503</v>
       </c>
       <c r="D24">
-        <v>1.091558469264247</v>
+        <v>1.064211856113403</v>
       </c>
       <c r="E24">
-        <v>1.090590183816959</v>
+        <v>1.055037277912478</v>
       </c>
       <c r="F24">
-        <v>1.101981680586029</v>
+        <v>1.068176602964606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.073180393309648</v>
+        <v>1.07636907864834</v>
       </c>
       <c r="J24">
-        <v>1.094182153811533</v>
+        <v>1.072158317468059</v>
       </c>
       <c r="K24">
-        <v>1.09474545152045</v>
+        <v>1.077197956147239</v>
       </c>
       <c r="L24">
-        <v>1.093780182164642</v>
+        <v>1.06816221846535</v>
       </c>
       <c r="M24">
-        <v>1.105136562016212</v>
+        <v>1.081103641907362</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.090675981354331</v>
+        <v>1.059419876267645</v>
       </c>
       <c r="D25">
-        <v>1.093509334200745</v>
+        <v>1.074989675840357</v>
       </c>
       <c r="E25">
-        <v>1.092695849543977</v>
+        <v>1.06655622934451</v>
       </c>
       <c r="F25">
-        <v>1.104135606906982</v>
+        <v>1.079852201009062</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0741216807572</v>
+        <v>1.08254608975078</v>
       </c>
       <c r="J25">
-        <v>1.09595741176209</v>
+        <v>1.082100611820364</v>
       </c>
       <c r="K25">
-        <v>1.096390899718363</v>
+        <v>1.08652561490669</v>
       </c>
       <c r="L25">
-        <v>1.095579688785506</v>
+        <v>1.078202289995135</v>
       </c>
       <c r="M25">
-        <v>1.10698780490466</v>
+        <v>1.091325623708446</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.069295225394698</v>
+        <v>1.022585834413386</v>
       </c>
       <c r="D2">
-        <v>1.083134481599872</v>
+        <v>1.037955221157698</v>
       </c>
       <c r="E2">
-        <v>1.075254068298475</v>
+        <v>1.034573212041517</v>
       </c>
       <c r="F2">
-        <v>1.088679560500012</v>
+        <v>1.043383186456705</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.087167535982353</v>
+        <v>1.04990642445279</v>
       </c>
       <c r="J2">
-        <v>1.089583948547385</v>
+        <v>1.044111372087489</v>
       </c>
       <c r="K2">
-        <v>1.093545509072224</v>
+        <v>1.04890994058662</v>
       </c>
       <c r="L2">
-        <v>1.08575586121086</v>
+        <v>1.045571016899229</v>
       </c>
       <c r="M2">
-        <v>1.099027691134927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.054269483851112</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.051522963955239</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045653819233646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.076177392136942</v>
+        <v>1.027915240792186</v>
       </c>
       <c r="D3">
-        <v>1.088815567251891</v>
+        <v>1.041561417100591</v>
       </c>
       <c r="E3">
-        <v>1.081317182206041</v>
+        <v>1.03880955182737</v>
       </c>
       <c r="F3">
-        <v>1.094839304379417</v>
+        <v>1.047208331883479</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.090364247401683</v>
+        <v>1.051018575183288</v>
       </c>
       <c r="J3">
-        <v>1.094786800384324</v>
+        <v>1.047672791804515</v>
       </c>
       <c r="K3">
-        <v>1.098425461583394</v>
+        <v>1.05168875739556</v>
       </c>
       <c r="L3">
-        <v>1.09100549246822</v>
+        <v>1.048968818038668</v>
       </c>
       <c r="M3">
-        <v>1.10438715274801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.057270807513714</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.053898271042994</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047616012167753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.080508151979393</v>
+        <v>1.031289374501225</v>
       </c>
       <c r="D4">
-        <v>1.092392364472716</v>
+        <v>1.043847281676523</v>
       </c>
       <c r="E4">
-        <v>1.085132888550594</v>
+        <v>1.041497231927156</v>
       </c>
       <c r="F4">
-        <v>1.098718714458065</v>
+        <v>1.049636829209238</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.09236450697566</v>
+        <v>1.051711430348253</v>
       </c>
       <c r="J4">
-        <v>1.098054853169285</v>
+        <v>1.049925201537342</v>
       </c>
       <c r="K4">
-        <v>1.10149031045192</v>
+        <v>1.05344381387817</v>
       </c>
       <c r="L4">
-        <v>1.09430194778609</v>
+        <v>1.051119347248858</v>
       </c>
       <c r="M4">
-        <v>1.107755615562564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.059170934044304</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.055402065015519</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04885784933314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.08230096723038</v>
+        <v>1.032697542383188</v>
       </c>
       <c r="D5">
-        <v>1.09387344197101</v>
+        <v>1.044804246656114</v>
       </c>
       <c r="E5">
-        <v>1.086712520412488</v>
+        <v>1.042621188687405</v>
       </c>
       <c r="F5">
-        <v>1.100325406790178</v>
+        <v>1.050652715927427</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.093189801335228</v>
+        <v>1.052000110603365</v>
       </c>
       <c r="J5">
-        <v>1.099406269331977</v>
+        <v>1.050866707208574</v>
       </c>
       <c r="K5">
-        <v>1.102757596282347</v>
+        <v>1.054178585800952</v>
       </c>
       <c r="L5">
-        <v>1.095664869212835</v>
+        <v>1.052018646683976</v>
       </c>
       <c r="M5">
-        <v>1.109149035406448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.05996569739795</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.056031054003509</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049384465419206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.082600397504726</v>
+        <v>1.032941251110754</v>
       </c>
       <c r="D6">
-        <v>1.09412082756811</v>
+        <v>1.044972804067672</v>
       </c>
       <c r="E6">
-        <v>1.086976346104857</v>
+        <v>1.042816986236406</v>
       </c>
       <c r="F6">
-        <v>1.100593792372077</v>
+        <v>1.050829615444123</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.093327476146647</v>
+        <v>1.052052688820144</v>
       </c>
       <c r="J6">
-        <v>1.099631891174679</v>
+        <v>1.051032164347645</v>
       </c>
       <c r="K6">
-        <v>1.102969166200927</v>
+        <v>1.054309805779702</v>
       </c>
       <c r="L6">
-        <v>1.095892397652907</v>
+        <v>1.052176711315298</v>
       </c>
       <c r="M6">
-        <v>1.109381697986258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.060105458213131</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.056141662992501</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04948588142731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.080532215163806</v>
+        <v>1.031330619403866</v>
       </c>
       <c r="D7">
-        <v>1.092412242076138</v>
+        <v>1.043883134431436</v>
       </c>
       <c r="E7">
-        <v>1.085154090312902</v>
+        <v>1.041533421555713</v>
       </c>
       <c r="F7">
-        <v>1.09874027670889</v>
+        <v>1.049669257095331</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.092375595042913</v>
+        <v>1.051727430230228</v>
       </c>
       <c r="J7">
-        <v>1.098072997745324</v>
+        <v>1.049959664980021</v>
       </c>
       <c r="K7">
-        <v>1.10150732587588</v>
+        <v>1.05347644382787</v>
       </c>
       <c r="L7">
-        <v>1.094320247790763</v>
+        <v>1.051152299736478</v>
       </c>
       <c r="M7">
-        <v>1.107774322196855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.059200201753962</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.055425227978833</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.048900788891541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.071647370453169</v>
+        <v>1.0244314625484</v>
       </c>
       <c r="D8">
-        <v>1.085075701193613</v>
+        <v>1.039213400931727</v>
       </c>
       <c r="E8">
-        <v>1.077326175806171</v>
+        <v>1.036043446139746</v>
       </c>
       <c r="F8">
-        <v>1.090784079102665</v>
+        <v>1.044709908450985</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.088262456409576</v>
+        <v>1.050303478499027</v>
       </c>
       <c r="J8">
-        <v>1.091363379827546</v>
+        <v>1.04535394091379</v>
       </c>
       <c r="K8">
-        <v>1.095214580197242</v>
+        <v>1.049887161324045</v>
       </c>
       <c r="L8">
-        <v>1.087551495652</v>
+        <v>1.046756354401583</v>
       </c>
       <c r="M8">
-        <v>1.100860249533011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.05531648852853</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.052351585078635</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046367460288114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054980291879034</v>
+        <v>1.011633716321214</v>
       </c>
       <c r="D9">
-        <v>1.071331090931708</v>
+        <v>1.030563555054829</v>
       </c>
       <c r="E9">
-        <v>1.062647235225486</v>
+        <v>1.025901600413545</v>
       </c>
       <c r="F9">
-        <v>1.075888236776522</v>
+        <v>1.035563108892105</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.080456692266418</v>
+        <v>1.047561959348208</v>
       </c>
       <c r="J9">
-        <v>1.078730512345374</v>
+        <v>1.036782242336496</v>
       </c>
       <c r="K9">
-        <v>1.083363955494021</v>
+        <v>1.043179485417866</v>
       </c>
       <c r="L9">
-        <v>1.074799566387396</v>
+        <v>1.03858796909821</v>
       </c>
       <c r="M9">
-        <v>1.087859377340505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.048104395989891</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.046643767452556</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041621598532624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043075996471497</v>
+        <v>1.002786984126578</v>
       </c>
       <c r="D10">
-        <v>1.061531209187216</v>
+        <v>1.024636919009505</v>
       </c>
       <c r="E10">
-        <v>1.052170692621891</v>
+        <v>1.018961483596399</v>
       </c>
       <c r="F10">
-        <v>1.065273454632924</v>
+        <v>1.029344193533564</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.074822914357402</v>
+        <v>1.045645517331738</v>
       </c>
       <c r="J10">
-        <v>1.06967896739085</v>
+        <v>1.03089046165847</v>
       </c>
       <c r="K10">
-        <v>1.07487178346867</v>
+        <v>1.038575151824899</v>
       </c>
       <c r="L10">
-        <v>1.065657818037103</v>
+        <v>1.032996619105584</v>
       </c>
       <c r="M10">
-        <v>1.07855635877556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.043203099059212</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042815911062912</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.038382789500004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.0377040889022</v>
+        <v>0.9999813165095388</v>
       </c>
       <c r="D11">
-        <v>1.057114201229558</v>
+        <v>1.023007294934377</v>
       </c>
       <c r="E11">
-        <v>1.047445937856866</v>
+        <v>1.017048209254682</v>
       </c>
       <c r="F11">
-        <v>1.060490405820025</v>
+        <v>1.027871726055976</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.072267366515457</v>
+        <v>1.045296396663829</v>
       </c>
       <c r="J11">
-        <v>1.065588306210902</v>
+        <v>1.029354872757511</v>
       </c>
       <c r="K11">
-        <v>1.071033826298214</v>
+        <v>1.037507990131145</v>
       </c>
       <c r="L11">
-        <v>1.061525325929776</v>
+        <v>1.031655626941951</v>
       </c>
       <c r="M11">
-        <v>1.074355122021359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.04228649196384</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042524704583581</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037660983462039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035673251179619</v>
+        <v>0.9993674860363876</v>
       </c>
       <c r="D12">
-        <v>1.055445267132857</v>
+        <v>1.022783403092034</v>
       </c>
       <c r="E12">
-        <v>1.045660283997144</v>
+        <v>1.016782098955039</v>
       </c>
       <c r="F12">
-        <v>1.058683339623681</v>
+        <v>1.027809564070991</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.071299316850772</v>
+        <v>1.045364539236805</v>
       </c>
       <c r="J12">
-        <v>1.064040996251523</v>
+        <v>1.029198639133442</v>
       </c>
       <c r="K12">
-        <v>1.069582104614576</v>
+        <v>1.037486749928025</v>
       </c>
       <c r="L12">
-        <v>1.059962042864652</v>
+        <v>1.031594691625569</v>
       </c>
       <c r="M12">
-        <v>1.072766464880769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.042422690698181</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042957416602818</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037645966054167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036110527038781</v>
+        <v>1.000433584161526</v>
       </c>
       <c r="D13">
-        <v>1.055804575783939</v>
+        <v>1.023657872608947</v>
       </c>
       <c r="E13">
-        <v>1.04604474179056</v>
+        <v>1.017796466756868</v>
       </c>
       <c r="F13">
-        <v>1.059072379447134</v>
+        <v>1.028862522131304</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.071507841425626</v>
+        <v>1.045778764005461</v>
       </c>
       <c r="J13">
-        <v>1.064374196838238</v>
+        <v>1.03012705129943</v>
       </c>
       <c r="K13">
-        <v>1.069894720689152</v>
+        <v>1.038302878536518</v>
       </c>
       <c r="L13">
-        <v>1.06029868974738</v>
+        <v>1.032547559477833</v>
       </c>
       <c r="M13">
-        <v>1.073108547357886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.043414642490969</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044017257466055</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038220509029837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037536960390623</v>
+        <v>1.00193942041194</v>
       </c>
       <c r="D14">
-        <v>1.056976836628464</v>
+        <v>1.024767419908955</v>
       </c>
       <c r="E14">
-        <v>1.047298975501906</v>
+        <v>1.019085076128499</v>
       </c>
       <c r="F14">
-        <v>1.060341668570026</v>
+        <v>1.030103717891182</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.072187739308719</v>
+        <v>1.046225096633365</v>
       </c>
       <c r="J14">
-        <v>1.065460986500577</v>
+        <v>1.031267278297359</v>
       </c>
       <c r="K14">
-        <v>1.070914371891447</v>
+        <v>1.039253277704053</v>
       </c>
       <c r="L14">
-        <v>1.061396694869203</v>
+        <v>1.033672341890293</v>
       </c>
       <c r="M14">
-        <v>1.074224390268037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.044495662750878</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045044425383604</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038893885268648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038411042374915</v>
+        <v>1.002681190256758</v>
       </c>
       <c r="D15">
-        <v>1.057695290931278</v>
+        <v>1.025287341595459</v>
       </c>
       <c r="E15">
-        <v>1.048067610630423</v>
+        <v>1.019689337362949</v>
       </c>
       <c r="F15">
-        <v>1.061119611905626</v>
+        <v>1.030664174517996</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.072604111424967</v>
+        <v>1.046414617261327</v>
       </c>
       <c r="J15">
-        <v>1.066126834570856</v>
+        <v>1.031792435866551</v>
       </c>
       <c r="K15">
-        <v>1.071539086701114</v>
+        <v>1.039678258765375</v>
       </c>
       <c r="L15">
-        <v>1.062069394898598</v>
+        <v>1.034179334428811</v>
       </c>
       <c r="M15">
-        <v>1.074908101968729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.044961237662825</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045449812126575</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039200199030066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,75 +1175,105 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043427700538496</v>
+        <v>1.006232511616186</v>
       </c>
       <c r="D16">
-        <v>1.061820513547358</v>
+        <v>1.027635933973006</v>
       </c>
       <c r="E16">
-        <v>1.05248009441382</v>
+        <v>1.022440121497838</v>
       </c>
       <c r="F16">
-        <v>1.065586758634938</v>
+        <v>1.033120691143951</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.074989958888619</v>
+        <v>1.047162338726228</v>
       </c>
       <c r="J16">
-        <v>1.06994666665564</v>
+        <v>1.034125013877794</v>
       </c>
       <c r="K16">
-        <v>1.075122944763876</v>
+        <v>1.041488251764312</v>
       </c>
       <c r="L16">
-        <v>1.065928233504656</v>
+        <v>1.036380173802783</v>
       </c>
       <c r="M16">
-        <v>1.078831359284224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.046881627817556</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046929144582051</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.04048305605659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046514451394961</v>
+        <v>1.008167519493713</v>
       </c>
       <c r="D17">
-        <v>1.064360217650743</v>
+        <v>1.028856787829665</v>
       </c>
       <c r="E17">
-        <v>1.055195911831619</v>
+        <v>1.023875626972839</v>
       </c>
       <c r="F17">
-        <v>1.068337287292263</v>
+        <v>1.034351389989874</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.076454542960983</v>
+        <v>1.047499559587528</v>
       </c>
       <c r="J17">
-        <v>1.072295465036838</v>
+        <v>1.035315410196043</v>
       </c>
       <c r="K17">
-        <v>1.07732662994624</v>
+        <v>1.042377088511179</v>
       </c>
       <c r="L17">
-        <v>1.068300744609797</v>
+        <v>1.037477591570462</v>
       </c>
       <c r="M17">
-        <v>1.081244567755618</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.047782779530462</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047513048083579</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041114056213254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048294145329559</v>
+        <v>1.008870038139012</v>
       </c>
       <c r="D18">
-        <v>1.065824994529592</v>
+        <v>1.029191093274102</v>
       </c>
       <c r="E18">
-        <v>1.056762003812761</v>
+        <v>1.024278834752145</v>
       </c>
       <c r="F18">
-        <v>1.06992377629558</v>
+        <v>1.034595600960392</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.077297709644368</v>
+        <v>1.04750041432814</v>
       </c>
       <c r="J18">
-        <v>1.073649108798876</v>
+        <v>1.035602084098324</v>
       </c>
       <c r="K18">
-        <v>1.07859663317958</v>
+        <v>1.042524281278256</v>
       </c>
       <c r="L18">
-        <v>1.069667953452542</v>
+        <v>1.037691242681167</v>
       </c>
       <c r="M18">
-        <v>1.082635619689281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.047842743478167</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047324117502674</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041206564326554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048897535133358</v>
+        <v>1.008514670973825</v>
       </c>
       <c r="D19">
-        <v>1.06632169393663</v>
+        <v>1.028780570715379</v>
       </c>
       <c r="E19">
-        <v>1.057293015600088</v>
+        <v>1.023801048351273</v>
       </c>
       <c r="F19">
-        <v>1.07046176831659</v>
+        <v>1.033992183438184</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.077583363819722</v>
+        <v>1.047230741903152</v>
       </c>
       <c r="J19">
-        <v>1.074107950174714</v>
+        <v>1.035127048659222</v>
       </c>
       <c r="K19">
-        <v>1.079027121004885</v>
+        <v>1.04205835969151</v>
       </c>
       <c r="L19">
-        <v>1.070131375574498</v>
+        <v>1.037158802900559</v>
       </c>
       <c r="M19">
-        <v>1.08310718957014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.047187335546256</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046482434775092</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040883502868575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046185438497572</v>
+        <v>1.005154701010609</v>
       </c>
       <c r="D20">
-        <v>1.064089462335911</v>
+        <v>1.026243751859996</v>
       </c>
       <c r="E20">
-        <v>1.05490640826997</v>
+        <v>1.020828013910675</v>
       </c>
       <c r="F20">
-        <v>1.068044043933511</v>
+        <v>1.031016473847584</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.07629856448809</v>
+        <v>1.046184212689067</v>
       </c>
       <c r="J20">
-        <v>1.072045169055136</v>
+        <v>1.03248835357664</v>
       </c>
       <c r="K20">
-        <v>1.077091798639439</v>
+        <v>1.039840316639396</v>
       </c>
       <c r="L20">
-        <v>1.068047932137631</v>
+        <v>1.034514254577946</v>
       </c>
       <c r="M20">
-        <v>1.080987377996882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.044535013195228</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043859481172268</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039319194264696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037117914922435</v>
+        <v>0.9982568724284222</v>
       </c>
       <c r="D21">
-        <v>1.056632433933761</v>
+        <v>1.021583929159439</v>
       </c>
       <c r="E21">
-        <v>1.046930502003142</v>
+        <v>1.015377252380041</v>
       </c>
       <c r="F21">
-        <v>1.059968754935448</v>
+        <v>1.026088804484173</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.071988057205939</v>
+        <v>1.044619288717999</v>
       </c>
       <c r="J21">
-        <v>1.065141741290467</v>
+        <v>1.027827654307445</v>
       </c>
       <c r="K21">
-        <v>1.070614848463537</v>
+        <v>1.036167609113789</v>
       </c>
       <c r="L21">
-        <v>1.061074159157528</v>
+        <v>1.03007303906984</v>
       </c>
       <c r="M21">
-        <v>1.073896597356349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.040592218026766</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04069840823376</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036725713493248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031209917115116</v>
+        <v>0.9938462929343909</v>
       </c>
       <c r="D22">
-        <v>1.051779124983259</v>
+        <v>1.018616348841213</v>
       </c>
       <c r="E22">
-        <v>1.04173690391008</v>
+        <v>1.011913557529778</v>
       </c>
       <c r="F22">
-        <v>1.054714066743891</v>
+        <v>1.022975994226482</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.069168271351014</v>
+        <v>1.043615070276008</v>
       </c>
       <c r="J22">
-        <v>1.060638875050495</v>
+        <v>1.024858974764282</v>
       </c>
       <c r="K22">
-        <v>1.066390178871131</v>
+        <v>1.033827818494077</v>
       </c>
       <c r="L22">
-        <v>1.05652453569462</v>
+        <v>1.027252642203681</v>
       </c>
       <c r="M22">
-        <v>1.069274335094812</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.038105631576197</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038730439629414</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035057924409211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034362503962702</v>
+        <v>0.9961718032495762</v>
       </c>
       <c r="D23">
-        <v>1.054368371160612</v>
+        <v>1.020172649047077</v>
       </c>
       <c r="E23">
-        <v>1.044507946197627</v>
+        <v>1.013734986733574</v>
       </c>
       <c r="F23">
-        <v>1.057517359674388</v>
+        <v>1.02461319850605</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.070673980459655</v>
+        <v>1.044138099332192</v>
       </c>
       <c r="J23">
-        <v>1.063042099619799</v>
+        <v>1.026417480698325</v>
       </c>
       <c r="K23">
-        <v>1.068644919539991</v>
+        <v>1.035050990007964</v>
       </c>
       <c r="L23">
-        <v>1.058952793418129</v>
+        <v>1.028732547566477</v>
       </c>
       <c r="M23">
-        <v>1.071741012916301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.039410440183523</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039763109957034</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035913134819699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04633416919503</v>
+        <v>1.005125452971593</v>
       </c>
       <c r="D24">
-        <v>1.064211856113403</v>
+        <v>1.026190253822291</v>
       </c>
       <c r="E24">
-        <v>1.055037277912478</v>
+        <v>1.020773139541559</v>
       </c>
       <c r="F24">
-        <v>1.068176602964606</v>
+        <v>1.030943941596936</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.07636907864834</v>
+        <v>1.046142194617986</v>
       </c>
       <c r="J24">
-        <v>1.072158317468059</v>
+        <v>1.032427620396291</v>
       </c>
       <c r="K24">
-        <v>1.077197956147239</v>
+        <v>1.039772536872889</v>
       </c>
       <c r="L24">
-        <v>1.06816221846535</v>
+        <v>1.034445018610606</v>
       </c>
       <c r="M24">
-        <v>1.081103641907362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.044448597549369</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043750466790238</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039243992192101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.059419876267645</v>
+        <v>1.015056952541789</v>
       </c>
       <c r="D25">
-        <v>1.074989675840357</v>
+        <v>1.032886626084176</v>
       </c>
       <c r="E25">
-        <v>1.06655622934451</v>
+        <v>1.028614361555499</v>
       </c>
       <c r="F25">
-        <v>1.079852201009062</v>
+        <v>1.038007226023328</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.08254608975078</v>
+        <v>1.048317584586659</v>
       </c>
       <c r="J25">
-        <v>1.082100611820364</v>
+        <v>1.039088002299398</v>
       </c>
       <c r="K25">
-        <v>1.08652561490669</v>
+        <v>1.044995002566597</v>
       </c>
       <c r="L25">
-        <v>1.078202289995135</v>
+        <v>1.040784141432499</v>
       </c>
       <c r="M25">
-        <v>1.091325623708446</v>
+        <v>1.050042848160238</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048177907850884</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042933647889423</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022585834413386</v>
+        <v>1.020582113693903</v>
       </c>
       <c r="D2">
-        <v>1.037955221157698</v>
+        <v>1.035757506558146</v>
       </c>
       <c r="E2">
-        <v>1.034573212041517</v>
+        <v>1.032951914281087</v>
       </c>
       <c r="F2">
-        <v>1.043383186456705</v>
+        <v>1.041724264500043</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04990642445279</v>
+        <v>1.049132568745854</v>
       </c>
       <c r="J2">
-        <v>1.044111372087489</v>
+        <v>1.042164173725107</v>
       </c>
       <c r="K2">
-        <v>1.04890994058662</v>
+        <v>1.046740183988691</v>
       </c>
       <c r="L2">
-        <v>1.045571016899229</v>
+        <v>1.043970498891047</v>
       </c>
       <c r="M2">
-        <v>1.054269483851112</v>
+        <v>1.052631379009144</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051522963955239</v>
+        <v>1.050226532117315</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045653819233646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044128335959042</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024088939386179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027915240792186</v>
+        <v>1.025582637834423</v>
       </c>
       <c r="D3">
-        <v>1.041561417100591</v>
+        <v>1.039010584788462</v>
       </c>
       <c r="E3">
-        <v>1.03880955182737</v>
+        <v>1.036889004191046</v>
       </c>
       <c r="F3">
-        <v>1.047208331883479</v>
+        <v>1.045270882820827</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051018575183288</v>
+        <v>1.050079702173082</v>
       </c>
       <c r="J3">
-        <v>1.047672791804515</v>
+        <v>1.045399383646553</v>
       </c>
       <c r="K3">
-        <v>1.05168875739556</v>
+        <v>1.049167511625672</v>
       </c>
       <c r="L3">
-        <v>1.048968818038668</v>
+        <v>1.04707067593731</v>
       </c>
       <c r="M3">
-        <v>1.057270807513714</v>
+        <v>1.055355515946183</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053898271042994</v>
+        <v>1.052382472165267</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047616012167753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045841719634755</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024667771616659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031289374501225</v>
+        <v>1.028752390987774</v>
       </c>
       <c r="D4">
-        <v>1.043847281676523</v>
+        <v>1.041075718708781</v>
       </c>
       <c r="E4">
-        <v>1.041497231927156</v>
+        <v>1.039390572072868</v>
       </c>
       <c r="F4">
-        <v>1.049636829209238</v>
+        <v>1.047525804516906</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051711430348253</v>
+        <v>1.050669447156001</v>
       </c>
       <c r="J4">
-        <v>1.049925201537342</v>
+        <v>1.047448146330613</v>
       </c>
       <c r="K4">
-        <v>1.05344381387817</v>
+        <v>1.050702437706286</v>
       </c>
       <c r="L4">
-        <v>1.051119347248858</v>
+        <v>1.049035741691391</v>
       </c>
       <c r="M4">
-        <v>1.059170934044304</v>
+        <v>1.057082574075262</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.055402065015519</v>
+        <v>1.053749299585412</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04885784933314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046927990251238</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025031072971053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032697542383188</v>
+        <v>1.030075970374759</v>
       </c>
       <c r="D5">
-        <v>1.044804246656114</v>
+        <v>1.041941104908966</v>
       </c>
       <c r="E5">
-        <v>1.042621188687405</v>
+        <v>1.040437420684188</v>
       </c>
       <c r="F5">
-        <v>1.050652715927427</v>
+        <v>1.048469747440729</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052000110603365</v>
+        <v>1.050915254242477</v>
       </c>
       <c r="J5">
-        <v>1.050866707208574</v>
+        <v>1.048305172125785</v>
       </c>
       <c r="K5">
-        <v>1.054178585800952</v>
+        <v>1.051345789298881</v>
       </c>
       <c r="L5">
-        <v>1.052018646683976</v>
+        <v>1.049858123893134</v>
       </c>
       <c r="M5">
-        <v>1.05996569739795</v>
+        <v>1.057805533111792</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056031054003509</v>
+        <v>1.05432146270488</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049384465419206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047390680397455</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025183506761797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032941251110754</v>
+        <v>1.030304886850555</v>
       </c>
       <c r="D6">
-        <v>1.044972804067672</v>
+        <v>1.042093710489109</v>
       </c>
       <c r="E6">
-        <v>1.042816986236406</v>
+        <v>1.04061966285492</v>
       </c>
       <c r="F6">
-        <v>1.050829615444123</v>
+        <v>1.048634060863544</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052052688820144</v>
+        <v>1.050960233248294</v>
       </c>
       <c r="J6">
-        <v>1.051032164347645</v>
+        <v>1.048455858149174</v>
       </c>
       <c r="K6">
-        <v>1.054309805779702</v>
+        <v>1.05146108501173</v>
       </c>
       <c r="L6">
-        <v>1.052176711315298</v>
+        <v>1.050002667352005</v>
       </c>
       <c r="M6">
-        <v>1.060105458213131</v>
+        <v>1.057932732643001</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056141662992501</v>
+        <v>1.054422130715879</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04948588142731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047481710526555</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02521178504477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031330619403866</v>
+        <v>1.028790570516873</v>
       </c>
       <c r="D7">
-        <v>1.043883134431436</v>
+        <v>1.041108475591522</v>
       </c>
       <c r="E7">
-        <v>1.041533421555713</v>
+        <v>1.039423772957482</v>
       </c>
       <c r="F7">
-        <v>1.049669257095331</v>
+        <v>1.047555628682562</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051727430230228</v>
+        <v>1.050683631226417</v>
       </c>
       <c r="J7">
-        <v>1.049959664980021</v>
+        <v>1.047479588834633</v>
       </c>
       <c r="K7">
-        <v>1.05347644382787</v>
+        <v>1.050731993019809</v>
       </c>
       <c r="L7">
-        <v>1.051152299736478</v>
+        <v>1.049065728576058</v>
       </c>
       <c r="M7">
-        <v>1.059200201753962</v>
+        <v>1.057109256839514</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.055425227978833</v>
+        <v>1.053770416825002</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048900788891541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04697076562577</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025040798426402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0244314625484</v>
+        <v>1.02231213428886</v>
       </c>
       <c r="D8">
-        <v>1.039213400931727</v>
+        <v>1.036892144755789</v>
       </c>
       <c r="E8">
-        <v>1.036043446139746</v>
+        <v>1.034316725027769</v>
       </c>
       <c r="F8">
-        <v>1.044709908450985</v>
+        <v>1.042953191053716</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050303478499027</v>
+        <v>1.049471377927987</v>
       </c>
       <c r="J8">
-        <v>1.04535394091379</v>
+        <v>1.04329232896145</v>
       </c>
       <c r="K8">
-        <v>1.049887161324045</v>
+        <v>1.047594542665247</v>
       </c>
       <c r="L8">
-        <v>1.046756354401583</v>
+        <v>1.045051083476277</v>
       </c>
       <c r="M8">
-        <v>1.05531648852853</v>
+        <v>1.053581146672959</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052351585078635</v>
+        <v>1.050978199198893</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046367460288114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044757380947702</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02429674395602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011633716321214</v>
+        <v>1.01032939206289</v>
       </c>
       <c r="D9">
-        <v>1.030563555054829</v>
+        <v>1.029108317542473</v>
       </c>
       <c r="E9">
-        <v>1.025901600413545</v>
+        <v>1.024915172872915</v>
       </c>
       <c r="F9">
-        <v>1.035563108892105</v>
+        <v>1.034493089584062</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047561959348208</v>
+        <v>1.047134980909788</v>
       </c>
       <c r="J9">
-        <v>1.036782242336496</v>
+        <v>1.03552259259328</v>
       </c>
       <c r="K9">
-        <v>1.043179485417866</v>
+        <v>1.041746148106746</v>
       </c>
       <c r="L9">
-        <v>1.03858796909821</v>
+        <v>1.037616550387964</v>
       </c>
       <c r="M9">
-        <v>1.048104395989891</v>
+        <v>1.047050274895911</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046643767452556</v>
+        <v>1.045809507842862</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041621598532624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040618816830274</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022883680164411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002786984126578</v>
+        <v>1.002061298321733</v>
       </c>
       <c r="D10">
-        <v>1.024636919009505</v>
+        <v>1.023788253286049</v>
       </c>
       <c r="E10">
-        <v>1.018961483596399</v>
+        <v>1.018496856990058</v>
       </c>
       <c r="F10">
-        <v>1.029344193533564</v>
+        <v>1.02875766924725</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045645517331738</v>
+        <v>1.045499597854812</v>
       </c>
       <c r="J10">
-        <v>1.03089046165847</v>
+        <v>1.030193371164431</v>
       </c>
       <c r="K10">
-        <v>1.038575151824899</v>
+        <v>1.037740888069189</v>
       </c>
       <c r="L10">
-        <v>1.032996619105584</v>
+        <v>1.032539987396375</v>
       </c>
       <c r="M10">
-        <v>1.043203099059212</v>
+        <v>1.042626407877109</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042815911062912</v>
+        <v>1.04235952814629</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038382789500004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03780528641423</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021913686788713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9999813165095388</v>
+        <v>0.9993504202129394</v>
       </c>
       <c r="D11">
-        <v>1.023007294934377</v>
+        <v>1.02226726905172</v>
       </c>
       <c r="E11">
-        <v>1.017048209254682</v>
+        <v>1.016654932095624</v>
       </c>
       <c r="F11">
-        <v>1.027871726055976</v>
+        <v>1.027363688419674</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045296396663829</v>
+        <v>1.045180535907631</v>
       </c>
       <c r="J11">
-        <v>1.029354872757511</v>
+        <v>1.028750247454639</v>
       </c>
       <c r="K11">
-        <v>1.037507990131145</v>
+        <v>1.036781129696758</v>
       </c>
       <c r="L11">
-        <v>1.031655626941951</v>
+        <v>1.031269450282035</v>
       </c>
       <c r="M11">
-        <v>1.04228649196384</v>
+        <v>1.041787379397282</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042524704583581</v>
+        <v>1.042129912647525</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037660983462039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037162643288346</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021771365214971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9993674860363876</v>
+        <v>0.998702891768498</v>
       </c>
       <c r="D12">
-        <v>1.022783403092034</v>
+        <v>1.02201637355368</v>
       </c>
       <c r="E12">
-        <v>1.016782098955039</v>
+        <v>1.016347359654753</v>
       </c>
       <c r="F12">
-        <v>1.027809564070991</v>
+        <v>1.027273259855375</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045364539236805</v>
+        <v>1.045220104095875</v>
       </c>
       <c r="J12">
-        <v>1.029198639133442</v>
+        <v>1.028562249174646</v>
       </c>
       <c r="K12">
-        <v>1.037486749928025</v>
+        <v>1.036733590156658</v>
       </c>
       <c r="L12">
-        <v>1.031594691625569</v>
+        <v>1.031167931461577</v>
       </c>
       <c r="M12">
-        <v>1.042422690698181</v>
+        <v>1.041895958576646</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042957416602818</v>
+        <v>1.04254091780283</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037645966054167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037129032181651</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021830167726541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000433584161526</v>
+        <v>0.9996313294130565</v>
       </c>
       <c r="D13">
-        <v>1.023657872608947</v>
+        <v>1.022754974993684</v>
       </c>
       <c r="E13">
-        <v>1.017796466756868</v>
+        <v>1.017228243025091</v>
       </c>
       <c r="F13">
-        <v>1.028862522131304</v>
+        <v>1.0282117667145</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045778764005461</v>
+        <v>1.045557276686245</v>
       </c>
       <c r="J13">
-        <v>1.03012705129943</v>
+        <v>1.029358622092856</v>
       </c>
       <c r="K13">
-        <v>1.038302878536518</v>
+        <v>1.037416219682031</v>
       </c>
       <c r="L13">
-        <v>1.032547559477833</v>
+        <v>1.031989704766493</v>
       </c>
       <c r="M13">
-        <v>1.043414642490969</v>
+        <v>1.042775434134627</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044017257466055</v>
+        <v>1.043511947169868</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038220509029837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037608935227821</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022059615484622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,105 +1183,123 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00193942041194</v>
+        <v>1.000995142505823</v>
       </c>
       <c r="D14">
-        <v>1.024767419908955</v>
+        <v>1.023721216299451</v>
       </c>
       <c r="E14">
-        <v>1.019085076128499</v>
+        <v>1.018383067182965</v>
       </c>
       <c r="F14">
-        <v>1.030103717891182</v>
+        <v>1.029334901246291</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046225096633365</v>
+        <v>1.045928339689742</v>
       </c>
       <c r="J14">
-        <v>1.031267278297359</v>
+        <v>1.03036217588522</v>
       </c>
       <c r="K14">
-        <v>1.039253277704053</v>
+        <v>1.038225635079866</v>
       </c>
       <c r="L14">
-        <v>1.033672341890293</v>
+        <v>1.032982963180309</v>
       </c>
       <c r="M14">
-        <v>1.044495662750878</v>
+        <v>1.043740298644976</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045044425383604</v>
+        <v>1.04444737092225</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038893885268648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038182760258627</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02229773988945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>1.002681190256758</v>
+        <v>1.001679045765055</v>
       </c>
       <c r="D15">
-        <v>1.025287341595459</v>
+        <v>1.024181756838881</v>
       </c>
       <c r="E15">
-        <v>1.019689337362949</v>
+        <v>1.018934028646297</v>
       </c>
       <c r="F15">
-        <v>1.030664174517996</v>
+        <v>1.029847234164444</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046414617261327</v>
+        <v>1.046088478108669</v>
       </c>
       <c r="J15">
-        <v>1.031792435866551</v>
+        <v>1.030831473724163</v>
       </c>
       <c r="K15">
-        <v>1.039678258765375</v>
+        <v>1.038592130637154</v>
       </c>
       <c r="L15">
-        <v>1.034179334428811</v>
+        <v>1.033437502263889</v>
       </c>
       <c r="M15">
-        <v>1.044961237662825</v>
+        <v>1.04415847549302</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045449812126575</v>
+        <v>1.044815309811829</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039200199030066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038448291372908</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02239647872526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006232511616186</v>
+        <v>1.005011810876761</v>
       </c>
       <c r="D16">
-        <v>1.027635933973006</v>
+        <v>1.026299814777173</v>
       </c>
       <c r="E16">
-        <v>1.022440121497838</v>
+        <v>1.021490641435959</v>
       </c>
       <c r="F16">
-        <v>1.033120691143951</v>
+        <v>1.032121727922529</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047162338726228</v>
+        <v>1.046732989520355</v>
       </c>
       <c r="J16">
-        <v>1.034125013877794</v>
+        <v>1.032951830474541</v>
       </c>
       <c r="K16">
-        <v>1.041488251764312</v>
+        <v>1.040174584344962</v>
       </c>
       <c r="L16">
-        <v>1.036380173802783</v>
+        <v>1.035446850860684</v>
       </c>
       <c r="M16">
-        <v>1.046881627817556</v>
+        <v>1.045899215112585</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046929144582051</v>
+        <v>1.046152624085114</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04048305605659</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039570562387616</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022770724941795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008167519493713</v>
+        <v>1.006853643083073</v>
       </c>
       <c r="D17">
-        <v>1.028856787829665</v>
+        <v>1.027418941251524</v>
       </c>
       <c r="E17">
-        <v>1.023875626972839</v>
+        <v>1.022847119487732</v>
       </c>
       <c r="F17">
-        <v>1.034351389989874</v>
+        <v>1.0332745724118</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047499559587528</v>
+        <v>1.047030285507216</v>
       </c>
       <c r="J17">
-        <v>1.035315410196043</v>
+        <v>1.034050969974634</v>
       </c>
       <c r="K17">
-        <v>1.042377088511179</v>
+        <v>1.040962710291582</v>
       </c>
       <c r="L17">
-        <v>1.037477591570462</v>
+        <v>1.036466073515109</v>
       </c>
       <c r="M17">
-        <v>1.047782779530462</v>
+        <v>1.046723290923654</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047513048083579</v>
+        <v>1.046675522047548</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041114056213254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040130601294327</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022932052870951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008870038139012</v>
+        <v>1.00756436816733</v>
       </c>
       <c r="D18">
-        <v>1.029191093274102</v>
+        <v>1.027755558486839</v>
       </c>
       <c r="E18">
-        <v>1.024278834752145</v>
+        <v>1.023265599818584</v>
       </c>
       <c r="F18">
-        <v>1.034595600960392</v>
+        <v>1.03352545422243</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04750041432814</v>
+        <v>1.047043917543939</v>
       </c>
       <c r="J18">
-        <v>1.035602084098324</v>
+        <v>1.034344617522938</v>
       </c>
       <c r="K18">
-        <v>1.042524281278256</v>
+        <v>1.041111796865614</v>
       </c>
       <c r="L18">
-        <v>1.037691242681167</v>
+        <v>1.036694469723803</v>
       </c>
       <c r="M18">
-        <v>1.047842743478167</v>
+        <v>1.046789543089707</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047324117502674</v>
+        <v>1.046491390474267</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041206564326554</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04022330919579</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022914889372464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008514670973825</v>
+        <v>1.007300059141714</v>
       </c>
       <c r="D19">
-        <v>1.028780570715379</v>
+        <v>1.027433060232041</v>
       </c>
       <c r="E19">
-        <v>1.023801048351273</v>
+        <v>1.022879603422902</v>
       </c>
       <c r="F19">
-        <v>1.033992183438184</v>
+        <v>1.032997879929489</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047230741903152</v>
+        <v>1.046829400880889</v>
       </c>
       <c r="J19">
-        <v>1.035127048659222</v>
+        <v>1.033957055365254</v>
       </c>
       <c r="K19">
-        <v>1.04205835969151</v>
+        <v>1.040732390632769</v>
       </c>
       <c r="L19">
-        <v>1.037158802900559</v>
+        <v>1.03625226495247</v>
       </c>
       <c r="M19">
-        <v>1.047187335546256</v>
+        <v>1.046208715602343</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046482434775092</v>
+        <v>1.045708425962888</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040883502868575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039962045934919</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022756198542482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005154701010609</v>
+        <v>1.004268957491977</v>
       </c>
       <c r="D20">
-        <v>1.026243751859996</v>
+        <v>1.025228829467751</v>
       </c>
       <c r="E20">
-        <v>1.020828013910675</v>
+        <v>1.020218491209351</v>
       </c>
       <c r="F20">
-        <v>1.031016473847584</v>
+        <v>1.03029653621812</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046184212689067</v>
+        <v>1.0459599125198</v>
       </c>
       <c r="J20">
-        <v>1.03248835357664</v>
+        <v>1.031636304070608</v>
       </c>
       <c r="K20">
-        <v>1.039840316639396</v>
+        <v>1.038842106912837</v>
       </c>
       <c r="L20">
-        <v>1.034514254577946</v>
+        <v>1.033914901388136</v>
       </c>
       <c r="M20">
-        <v>1.044535013195228</v>
+        <v>1.043826785773294</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043859481172268</v>
+        <v>1.043298996494892</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039319194264696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038629875642371</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022189552839357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9982568724284222</v>
+        <v>0.9978498845778827</v>
       </c>
       <c r="D21">
-        <v>1.021583929159439</v>
+        <v>1.021064770559971</v>
       </c>
       <c r="E21">
-        <v>1.015377252380041</v>
+        <v>1.015200813477442</v>
       </c>
       <c r="F21">
-        <v>1.026088804484173</v>
+        <v>1.025767062083312</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044619288717999</v>
+        <v>1.044628214939278</v>
       </c>
       <c r="J21">
-        <v>1.027827654307445</v>
+        <v>1.027437777107258</v>
       </c>
       <c r="K21">
-        <v>1.036167609113789</v>
+        <v>1.035657759844629</v>
       </c>
       <c r="L21">
-        <v>1.03007303906984</v>
+        <v>1.029899813132978</v>
       </c>
       <c r="M21">
-        <v>1.040592218026766</v>
+        <v>1.040276177997656</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04069840823376</v>
+        <v>1.040448283766034</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036725713493248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036382031493736</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021395658843446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9938462929343909</v>
+        <v>0.9937486751338916</v>
       </c>
       <c r="D22">
-        <v>1.018616348841213</v>
+        <v>1.018414998251247</v>
       </c>
       <c r="E22">
-        <v>1.011913557529778</v>
+        <v>1.012015668949618</v>
       </c>
       <c r="F22">
-        <v>1.022975994226482</v>
+        <v>1.022910290278662</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043615070276008</v>
+        <v>1.043772780282187</v>
       </c>
       <c r="J22">
-        <v>1.024858974764282</v>
+        <v>1.024765718477285</v>
       </c>
       <c r="K22">
-        <v>1.033827818494077</v>
+        <v>1.033630269455191</v>
       </c>
       <c r="L22">
-        <v>1.027252642203681</v>
+        <v>1.027352792913665</v>
       </c>
       <c r="M22">
-        <v>1.038105631576197</v>
+        <v>1.038041154161644</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038730439629414</v>
+        <v>1.03867940995138</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035057924409211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034933764013064</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020889321213965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9961718032495762</v>
+        <v>0.9959113987691853</v>
       </c>
       <c r="D23">
-        <v>1.020172649047077</v>
+        <v>1.019804109296456</v>
       </c>
       <c r="E23">
-        <v>1.013734986733574</v>
+        <v>1.013690898235011</v>
       </c>
       <c r="F23">
-        <v>1.02461319850605</v>
+        <v>1.024412921582917</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044138099332192</v>
+        <v>1.044218054036499</v>
       </c>
       <c r="J23">
-        <v>1.026417480698325</v>
+        <v>1.026168344381207</v>
       </c>
       <c r="K23">
-        <v>1.035050990007964</v>
+        <v>1.034689222376174</v>
       </c>
       <c r="L23">
-        <v>1.028732547566477</v>
+        <v>1.028689282362055</v>
       </c>
       <c r="M23">
-        <v>1.039410440183523</v>
+        <v>1.039213801289288</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039763109957034</v>
+        <v>1.039607483280339</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035913134819699</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035671914204228</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021151286631056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005125452971593</v>
+        <v>1.004251374701771</v>
       </c>
       <c r="D24">
-        <v>1.026190253822291</v>
+        <v>1.02518623787373</v>
       </c>
       <c r="E24">
-        <v>1.020773139541559</v>
+        <v>1.020175716975431</v>
       </c>
       <c r="F24">
-        <v>1.030943941596936</v>
+        <v>1.030233753009528</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046142194617986</v>
+        <v>1.045925426923916</v>
       </c>
       <c r="J24">
-        <v>1.032427620396291</v>
+        <v>1.031586747930723</v>
       </c>
       <c r="K24">
-        <v>1.039772536872889</v>
+        <v>1.038785034824931</v>
       </c>
       <c r="L24">
-        <v>1.034445018610606</v>
+        <v>1.033857552124005</v>
       </c>
       <c r="M24">
-        <v>1.044448597549369</v>
+        <v>1.043749947778422</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043750466790238</v>
+        <v>1.043197534608689</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039243992192101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038559567768314</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022163160914874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015056952541789</v>
+        <v>1.013528936544334</v>
       </c>
       <c r="D25">
-        <v>1.032886626084176</v>
+        <v>1.031195650978037</v>
       </c>
       <c r="E25">
-        <v>1.028614361555499</v>
+        <v>1.027424669262612</v>
       </c>
       <c r="F25">
-        <v>1.038007226023328</v>
+        <v>1.036749361999695</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048317584586659</v>
+        <v>1.04777963298789</v>
       </c>
       <c r="J25">
-        <v>1.039088002299398</v>
+        <v>1.037609421219707</v>
       </c>
       <c r="K25">
-        <v>1.044995002566597</v>
+        <v>1.043328254069816</v>
       </c>
       <c r="L25">
-        <v>1.040784141432499</v>
+        <v>1.039611663292272</v>
       </c>
       <c r="M25">
-        <v>1.050042848160238</v>
+        <v>1.048802771889963</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048177907850884</v>
+        <v>1.047196480286758</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042933647889423</v>
+        <v>1.041768638218708</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023272995861852</v>
       </c>
     </row>
   </sheetData>
